--- a/GHGimpactsfoodwastes_AR5_9_12_15.xlsx
+++ b/GHGimpactsfoodwastes_AR5_9_12_15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="11820" windowHeight="13200" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="24080" windowHeight="14340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="941">
   <si>
     <t>Hauling</t>
   </si>
@@ -2698,9 +2698,6 @@
     <t>Production K fertilizer</t>
   </si>
   <si>
-    <t>Production P fertilizer</t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
@@ -2869,9 +2866,6 @@
     <t>LandApplication_FracGasM</t>
   </si>
   <si>
-    <t>LandApp_NAvailabiltiy_Factor</t>
-  </si>
-  <si>
     <t>Compost_dieseLlpert</t>
   </si>
   <si>
@@ -2902,9 +2896,6 @@
     <t>yr-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower than Barlaz and Levis which had,  2011 had 0.08kgC/kg dry </t>
-  </si>
-  <si>
     <t>Taken from Barlaz, 1998</t>
   </si>
   <si>
@@ -2968,9 +2959,6 @@
     <t>a little high compared to Manfredi, 2009 (3.8-10kgCO2e), slightly lower than warm (19.25)? Did not include AR5 factors and of provision of fuel</t>
   </si>
   <si>
-    <t>based upon 20km to field</t>
-  </si>
-  <si>
     <t>Moller, 2009</t>
   </si>
   <si>
@@ -2992,22 +2980,10 @@
     <t>Compost_CS_factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Field spreading emissions </t>
-  </si>
-  <si>
-    <t>kgCO2e/t-20km</t>
-  </si>
-  <si>
-    <t>Emspread</t>
-  </si>
-  <si>
     <t>2-14% of C in compost</t>
   </si>
   <si>
     <t>CS correction factor</t>
-  </si>
-  <si>
-    <t>additional degradation due to fungi</t>
   </si>
   <si>
     <t>Remaining after AD</t>
@@ -3029,12 +3005,6 @@
 2004, Hansen et al. 2006- K and P are 100%</t>
   </si>
   <si>
-    <t xml:space="preserve">Wood and Cowie, 2004 </t>
-  </si>
-  <si>
-    <t>range from boldrin,2009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial C of food compost Boldrin, 2009 25.2 - 154.4 KgC/tFW </t>
   </si>
   <si>
@@ -3066,13 +3036,148 @@
   </si>
   <si>
     <t>deGuardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty close to Barlaz and Levis which had,  2011 had 0.08kgC/kg dry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average calculated from Wood and Cowie, 2004 </t>
+  </si>
+  <si>
+    <t>Production P  fertilizer</t>
+  </si>
+  <si>
+    <t>323gCH4gJ Nielsen, 2008</t>
+  </si>
+  <si>
+    <t>scaling factor for lab B0 to commercial Methane yeild plus flare, leaks, etc.  Moller et al., 2009 assume 0.7 from lab to field</t>
+  </si>
+  <si>
+    <t>L/t-km</t>
+  </si>
+  <si>
+    <t>Eisted et al, 2009</t>
+  </si>
+  <si>
+    <t>from Moller paper</t>
+  </si>
+  <si>
+    <t>Deisel fuel use spreader</t>
+  </si>
+  <si>
+    <t>Distance to field and spread</t>
+  </si>
+  <si>
+    <t>0.03-0.06 L/t-km</t>
+  </si>
+  <si>
+    <t>Deisel use</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Diesel fuel use</t>
+  </si>
+  <si>
+    <t>Diesel fuel to spread</t>
+  </si>
+  <si>
+    <t>L/t-m</t>
+  </si>
+  <si>
+    <t>range from boldrin,2009-NOT USED</t>
+  </si>
+  <si>
+    <t>DieselspreadLpertkm</t>
+  </si>
+  <si>
+    <t>kgCO2e/MWh</t>
+  </si>
+  <si>
+    <t>Eistad et al., 2009)</t>
+  </si>
+  <si>
+    <t>based upon 20km to field- not used</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>% of C applied</t>
+  </si>
+  <si>
+    <t>Bruun et al, 2006</t>
+  </si>
+  <si>
+    <t>Calculated by subracting CO2-C factor</t>
+  </si>
+  <si>
+    <t>KgC/t FW</t>
+  </si>
+  <si>
+    <t>KgCO2/t FW</t>
+  </si>
+  <si>
+    <t>assuming  60% CH4 and 40% CO2</t>
+  </si>
+  <si>
+    <t>Methane produced</t>
+  </si>
+  <si>
+    <t>kgCH4/t FW</t>
+  </si>
+  <si>
+    <t>CO2 produced</t>
+  </si>
+  <si>
+    <t>C remaining in digestate</t>
+  </si>
+  <si>
+    <t>kgC/t FW</t>
+  </si>
+  <si>
+    <t>Carbon Correction factor</t>
+  </si>
+  <si>
+    <t>.04-.14</t>
+  </si>
+  <si>
+    <t>biogenic C emissions</t>
+  </si>
+  <si>
+    <t>KgC/tonne</t>
+  </si>
+  <si>
+    <t>calculated as initial C*fd</t>
+  </si>
+  <si>
+    <t>Methane C combusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%-.48% additional degradation to </t>
+  </si>
+  <si>
+    <t>additional  20% degradation due to fungi</t>
+  </si>
+  <si>
+    <t>LA_CS_factor</t>
+  </si>
+  <si>
+    <t>Digestate</t>
+  </si>
+  <si>
+    <t>calculated from Bruun, 2006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -3081,7 +3186,6 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="56" x14ac:knownFonts="1">
     <font>
@@ -3786,7 +3890,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="429">
+  <cellStyleXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4216,8 +4320,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4632,15 +4742,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="12" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="429">
+  <cellStyles count="435">
     <cellStyle name="Bad 2" xfId="17"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="18"/>
@@ -4852,6 +4963,9 @@
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -5061,6 +5175,9 @@
     <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="21"/>
@@ -5395,11 +5512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2059372312"/>
-        <c:axId val="2058817096"/>
+        <c:axId val="-2144242728"/>
+        <c:axId val="-2127516120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2059372312"/>
+        <c:axId val="-2144242728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058817096"/>
+        <c:crossAx val="-2127516120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5417,7 +5534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058817096"/>
+        <c:axId val="-2127516120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,7 +5545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059372312"/>
+        <c:crossAx val="-2144242728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5910,11 +6027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077342200"/>
-        <c:axId val="-2077339224"/>
+        <c:axId val="-2126540440"/>
+        <c:axId val="2121279016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077342200"/>
+        <c:axId val="-2126540440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5924,7 +6041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077339224"/>
+        <c:crossAx val="2121279016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5932,7 +6049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077339224"/>
+        <c:axId val="2121279016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5955,13 +6072,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077342200"/>
+        <c:crossAx val="-2126540440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7013,11 +7131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2077512200"/>
-        <c:axId val="-2077509384"/>
+        <c:axId val="-2109343640"/>
+        <c:axId val="-2127552312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077512200"/>
+        <c:axId val="-2109343640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7037,7 +7155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077509384"/>
+        <c:crossAx val="-2127552312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7045,7 +7163,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077509384"/>
+        <c:axId val="-2127552312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077512200"/>
+        <c:crossAx val="-2109343640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7590,8 +7708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7754,7 +7872,7 @@
     </row>
     <row r="9" spans="1:18" s="47" customFormat="1">
       <c r="A9" s="117" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="199"/>
@@ -7875,7 +7993,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="198"/>
@@ -8144,7 +8262,7 @@
       <c r="M28" s="160"/>
       <c r="N28" s="152"/>
       <c r="O28" s="155" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
@@ -11387,13 +11505,13 @@
       <c r="A68" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B68" s="283">
+      <c r="B68" s="284">
         <v>90</v>
       </c>
-      <c r="C68" s="283">
+      <c r="C68" s="284">
         <v>87</v>
       </c>
-      <c r="D68" s="283">
+      <c r="D68" s="284">
         <v>99</v>
       </c>
     </row>
@@ -11401,9 +11519,9 @@
       <c r="A69" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="283"/>
-      <c r="C69" s="283"/>
-      <c r="D69" s="283"/>
+      <c r="B69" s="284"/>
+      <c r="C69" s="284"/>
+      <c r="D69" s="284"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="64" t="s">
@@ -11580,13 +11698,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -11709,10 +11831,55 @@
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D9" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B12">
+        <v>0.04</v>
+      </c>
+      <c r="C12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -11747,8 +11914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11769,19 +11936,19 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E1" t="s">
         <v>765</v>
       </c>
       <c r="F1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -11799,7 +11966,7 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -11807,11 +11974,11 @@
         <v>141</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N2"/>
       <c r="O2" s="59" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11824,7 +11991,7 @@
         <v>kgCO2e/L diesel</v>
       </c>
       <c r="C3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D3" t="s">
         <v>765</v>
@@ -11842,16 +12009,16 @@
         <v>647</v>
       </c>
       <c r="K3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="L3" t="s">
         <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11862,7 +12029,7 @@
         <v>646</v>
       </c>
       <c r="C4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D4" t="s">
         <v>765</v>
@@ -11871,10 +12038,10 @@
         <v>2.7204943424399999</v>
       </c>
       <c r="H4" s="69" t="s">
+        <v>857</v>
+      </c>
+      <c r="J4" t="s">
         <v>860</v>
-      </c>
-      <c r="J4" t="s">
-        <v>863</v>
       </c>
       <c r="K4">
         <v>1180.6199999999999</v>
@@ -11895,8 +12062,11 @@
       <c r="A5" t="s">
         <v>778</v>
       </c>
+      <c r="B5" t="s">
+        <v>914</v>
+      </c>
       <c r="C5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D5" t="s">
         <v>643</v>
@@ -11914,7 +12084,7 @@
         <v>-918.79198627000005</v>
       </c>
       <c r="J5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="K5">
         <v>1520.2</v>
@@ -11932,32 +12102,39 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="B6" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="C6" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+        <v>643</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>781</v>
       </c>
       <c r="C7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>643</v>
       </c>
       <c r="E7">
         <v>6.8</v>
@@ -11969,13 +12146,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="I7" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="J7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="K7">
         <v>2014.87</v>
@@ -11993,10 +12170,13 @@
     </row>
     <row r="8" spans="1:15" ht="30">
       <c r="A8" t="s">
-        <v>806</v>
-      </c>
-      <c r="C8" t="s">
-        <v>891</v>
+        <v>805</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D8" t="s">
+        <v>643</v>
       </c>
       <c r="E8">
         <v>0.4</v>
@@ -12008,13 +12188,13 @@
         <v>0.6</v>
       </c>
       <c r="H8" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="J8" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K8">
         <v>1181.7</v>
@@ -12032,13 +12212,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>898</v>
       </c>
       <c r="C9" t="s">
         <v>637</v>
       </c>
       <c r="D9" t="s">
-        <v>848</v>
+        <v>643</v>
+      </c>
+      <c r="E9">
+        <v>1.8</v>
       </c>
       <c r="F9">
         <v>0.52</v>
@@ -12049,16 +12232,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
         <v>637</v>
       </c>
       <c r="D10" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E10">
-        <v>0.41</v>
+        <v>0.96</v>
       </c>
       <c r="F10">
         <v>0.38</v>
@@ -12069,13 +12252,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F11">
         <v>-550</v>
@@ -12089,7 +12272,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -12102,7 +12285,7 @@
         <v>L/t</v>
       </c>
       <c r="C13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D13" t="s">
         <v>643</v>
@@ -12135,7 +12318,7 @@
         <v>%</v>
       </c>
       <c r="C14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D14" t="s">
         <v>765</v>
@@ -12202,7 +12385,7 @@
         <v>btu/kwh</v>
       </c>
       <c r="C16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D16" t="s">
         <v>765</v>
@@ -12228,13 +12411,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D17" t="s">
         <v>643</v>
@@ -12249,21 +12432,21 @@
         <v>0.9</v>
       </c>
       <c r="H17" t="s">
+        <v>806</v>
+      </c>
+      <c r="I17" t="s">
         <v>807</v>
-      </c>
-      <c r="I17" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D18" t="s">
         <v>643</v>
@@ -12290,7 +12473,7 @@
         <v>fraction</v>
       </c>
       <c r="C19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D19" t="s">
         <v>643</v>
@@ -12305,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I19" s="6" t="str">
         <f>'Landfill '!K15</f>
@@ -12317,7 +12500,7 @@
         <v>473</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C20" t="s">
         <v>473</v>
@@ -12343,7 +12526,7 @@
         <v>775</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -12356,7 +12539,7 @@
         <v>%</v>
       </c>
       <c r="C22" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D22" t="s">
         <v>643</v>
@@ -12375,9 +12558,8 @@
         <f>AD!H12</f>
         <v>Ebner et al, 2014</v>
       </c>
-      <c r="I22" t="str">
-        <f>AD!J12</f>
-        <v>scaling factor for lab B0 to commercial Methane yeild</v>
+      <c r="I22" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12390,7 +12572,7 @@
         <v>% methane utilized</v>
       </c>
       <c r="C23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D23" t="s">
         <v>643</v>
@@ -12424,7 +12606,7 @@
         <v>% methane utilized</v>
       </c>
       <c r="C24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D24" t="s">
         <v>765</v>
@@ -12465,6 +12647,9 @@
         <f>AD!D17</f>
         <v>0.378882</v>
       </c>
+      <c r="I25" s="12" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="str">
@@ -12476,10 +12661,10 @@
         <v>MWh/t</v>
       </c>
       <c r="C26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D26" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E26">
         <f>AD!E18</f>
@@ -12512,7 +12697,7 @@
         <v>% KWh generated</v>
       </c>
       <c r="C27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D27" t="s">
         <v>643</v>
@@ -12546,7 +12731,7 @@
         <v>%</v>
       </c>
       <c r="C28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D28" t="s">
         <v>643</v>
@@ -12580,7 +12765,7 @@
         <v>m3CH4/kgVS</v>
       </c>
       <c r="C29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D29" t="s">
         <v>643</v>
@@ -12610,10 +12795,10 @@
         <v>kgCO2e/t</v>
       </c>
       <c r="C30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D30" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E30">
         <f>AD!E33</f>
@@ -12646,10 +12831,10 @@
         <v>KgNvol/kg N</v>
       </c>
       <c r="C31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D31" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E31">
         <f>AD!E34</f>
@@ -12680,10 +12865,10 @@
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="C32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D32" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E32">
         <f>AD!E35</f>
@@ -12709,142 +12894,154 @@
         <v>38</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" t="str">
-        <f>'Land application'!A8</f>
-        <v>Xport to field</v>
-      </c>
-      <c r="B34" t="str">
-        <f>'Land application'!B8</f>
-        <v>kgCO2e/t</v>
-      </c>
-      <c r="C34" t="s">
-        <v>836</v>
+      <c r="A34" t="s">
+        <v>910</v>
+      </c>
+      <c r="B34" t="s">
+        <v>901</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="D34" t="s">
         <v>643</v>
       </c>
-      <c r="E34">
-        <f>'Land application'!E8</f>
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>20</v>
+      <c r="E34" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="69">
+        <v>0.6</v>
       </c>
       <c r="H34" t="s">
-        <v>874</v>
-      </c>
-      <c r="I34" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="str">
-        <f>'Land application'!A11</f>
+        <f>'Land application'!A10</f>
+        <v>Xport to field</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>835</v>
+      </c>
+      <c r="D35" t="s">
+        <v>643</v>
+      </c>
+      <c r="E35">
+        <f>'Land application'!E9</f>
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>870</v>
+      </c>
+      <c r="I35" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="str">
+        <f>'Land application'!A13</f>
         <v>Direct N2O emission factor</v>
       </c>
-      <c r="B35" t="str">
-        <f>'Land application'!B11</f>
+      <c r="B36" t="str">
+        <f>'Land application'!B13</f>
         <v>Kg N2O-N/kg N</v>
       </c>
-      <c r="C35" t="s">
-        <v>837</v>
-      </c>
-      <c r="D35" t="s">
-        <v>765</v>
-      </c>
-      <c r="E35">
-        <f>'Land application'!E11</f>
+      <c r="C36" t="s">
+        <v>836</v>
+      </c>
+      <c r="D36" t="s">
+        <v>643</v>
+      </c>
+      <c r="E36">
+        <f>'Land application'!E13</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>0.05</v>
       </c>
-      <c r="H35" t="str">
-        <f>'Land application'!H11</f>
+      <c r="H36" t="str">
+        <f>'Land application'!H13</f>
         <v>IPCC EF1=0.0125</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>898</v>
-      </c>
-      <c r="B36" t="str">
-        <f>'Land application'!B14</f>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>888</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'Land application'!B16</f>
         <v>KgNvol/kg N</v>
       </c>
-      <c r="C36" t="s">
-        <v>839</v>
-      </c>
-      <c r="D36" t="s">
-        <v>765</v>
-      </c>
-      <c r="E36">
-        <f>'Land application'!E14</f>
+      <c r="C37" t="s">
+        <v>838</v>
+      </c>
+      <c r="D37" t="s">
+        <v>643</v>
+      </c>
+      <c r="E37">
+        <f>'Land application'!E16</f>
         <v>0.2</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.05</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>0.5</v>
       </c>
-      <c r="H36" t="str">
-        <f>'Land application'!H14</f>
+      <c r="H37" t="str">
+        <f>'Land application'!H16</f>
         <v>IPCC, FracGASM=0.20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="str">
-        <f>'Land application'!A18</f>
-        <v>Carbon storage factor</v>
-      </c>
-      <c r="B37">
-        <f>'Land application'!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>637</v>
-      </c>
-      <c r="D37" t="s">
-        <v>765</v>
-      </c>
-      <c r="E37">
-        <f>'Land application'!E18</f>
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="str">
-        <f>'Land application'!A25</f>
-        <v>Effective N applied</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'Land application'!B25</f>
-        <v>mg/kg</v>
-      </c>
-      <c r="C38" t="s">
-        <v>840</v>
+        <f>'Land application'!A20</f>
+        <v>Carbon storage factor</v>
+      </c>
+      <c r="B38">
+        <f>'Land application'!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="D38" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E38">
-        <f>'Land application'!F25</f>
-        <v>0.4</v>
-      </c>
-      <c r="I38" t="str">
-        <f>'Land application'!H25</f>
-        <v>purely arbitrary mineralization factor of 40%</v>
+        <v>0.2</v>
+      </c>
+      <c r="F38">
+        <v>0.15</v>
+      </c>
+      <c r="G38">
+        <v>0.48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>870</v>
+      </c>
+      <c r="I38" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="59" customFormat="1">
@@ -12852,19 +13049,19 @@
         <v>108</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B40" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
-      <c r="C40" t="s">
-        <v>841</v>
+      <c r="C40" s="15" t="s">
+        <v>839</v>
       </c>
       <c r="D40" t="s">
         <v>643</v>
@@ -12884,16 +13081,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>798</v>
+      </c>
+      <c r="B41" t="s">
         <v>799</v>
-      </c>
-      <c r="B41" t="s">
-        <v>800</v>
       </c>
       <c r="C41" t="s">
         <v>637</v>
       </c>
       <c r="D41" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -12918,7 +13115,7 @@
         <v>%/initial C</v>
       </c>
       <c r="C42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D42" t="s">
         <v>643</v>
@@ -12933,18 +13130,18 @@
         <v>0.83</v>
       </c>
       <c r="H42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C43" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D43" t="s">
         <v>643</v>
@@ -12959,18 +13156,18 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H43" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C44" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D44" t="s">
         <v>643</v>
@@ -12985,7 +13182,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H44" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I44" t="str">
         <f>compost!H20</f>
@@ -12994,43 +13191,43 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>793</v>
+      </c>
+      <c r="B45" t="s">
         <v>794</v>
       </c>
-      <c r="B45" t="s">
-        <v>795</v>
-      </c>
-      <c r="C45" t="s">
-        <v>880</v>
+      <c r="C45" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="D45" t="s">
         <v>643</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F45">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="G45">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="H45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B46" t="str">
         <f>compost!B35</f>
         <v>%compost/fw</v>
       </c>
       <c r="C46" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D46" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E46">
         <v>0.4</v>
@@ -13041,30 +13238,36 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
-        <v>846</v>
+      <c r="C47" s="5" t="s">
+        <v>844</v>
       </c>
       <c r="D47" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E47">
         <v>30</v>
       </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>800</v>
+      </c>
+      <c r="B48" t="s">
         <v>801</v>
       </c>
-      <c r="B48" t="s">
-        <v>802</v>
-      </c>
       <c r="C48" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D48" t="s">
         <v>643</v>
@@ -13087,10 +13290,10 @@
         <v>702</v>
       </c>
       <c r="B49" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C49" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D49" t="s">
         <v>765</v>
@@ -13099,18 +13302,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H49" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B50" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C50" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D50" t="s">
         <v>765</v>
@@ -13119,7 +13322,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="H50" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -13137,8 +13340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD109"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13211,7 +13414,7 @@
       <c r="D2" s="211"/>
       <c r="G2" s="54"/>
       <c r="K2" s="269" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
@@ -13544,7 +13747,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="270" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B21" s="270" t="s">
         <v>23</v>
@@ -13554,7 +13757,7 @@
       <c r="H21" s="112"/>
       <c r="I21" s="112"/>
       <c r="K21" s="270" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -13636,10 +13839,10 @@
         <v>145.73955722402675</v>
       </c>
       <c r="J25" s="117" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="K25" s="117" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="117" customFormat="1">
@@ -13656,22 +13859,22 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="J26" s="117" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="K26" s="117" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1">
       <c r="A27" s="42" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C27" s="210"/>
       <c r="D27" s="210"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="281"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280"/>
       <c r="J27" s="42" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>637</v>
@@ -13686,15 +13889,15 @@
       </c>
       <c r="C28" s="213"/>
       <c r="D28" s="212">
-        <f>F25*(1-F26)</f>
+        <f>F25*(1-F26)*G29</f>
         <v>23.172589598620259</v>
       </c>
       <c r="F28" s="170"/>
-      <c r="G28" s="279"/>
+      <c r="G28" s="278"/>
       <c r="H28" s="277"/>
       <c r="I28" s="277"/>
       <c r="K28" s="117" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -13702,20 +13905,19 @@
         <v>770</v>
       </c>
       <c r="B29" s="270" t="s">
-        <v>857</v>
-      </c>
-      <c r="D29" s="278">
+        <v>854</v>
+      </c>
+      <c r="G29" s="196">
+        <v>1</v>
+      </c>
+      <c r="H29" s="283">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
-      <c r="G29" s="196">
-        <v>0.08</v>
-      </c>
-      <c r="H29" s="270"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="270" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -17132,10 +17334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17281,7 +17483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="15" t="s">
         <v>392</v>
       </c>
@@ -17313,13 +17515,13 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>426</v>
       </c>
@@ -17435,10 +17637,10 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -17732,326 +17934,457 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>705</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="22">
-        <f>1.5*E39/20</f>
-        <v>1.5</v>
-      </c>
-      <c r="E39" s="234">
+    <row r="39" spans="1:10" s="6" customFormat="1">
+      <c r="A39" s="46" t="s">
+        <v>904</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="G39" s="272">
+        <f>GlobalFactors!E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1">
+      <c r="A40" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="234">
         <v>20</v>
       </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="92">
-        <f>F32*(1-E33-E34-E40)</f>
-        <v>4004</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" t="s">
-        <v>432</v>
-      </c>
-      <c r="J40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>702</v>
-      </c>
-      <c r="B41" t="s">
-        <v>692</v>
-      </c>
-      <c r="D41" s="9">
-        <f>D40*Parameters!C$16*Parameters!$C$5/1000*E41</f>
-        <v>20.842250000000003</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>431</v>
-      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="A41" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E41" s="234"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B42" t="s">
-        <v>693</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10">
-        <v>0.2</v>
+        <v>30</v>
+      </c>
+      <c r="D42" s="224">
+        <f>E40*G39*(GlobalFactors!E4+GlobalFactors!E3)</f>
+        <v>19.022966054640001</v>
       </c>
       <c r="H42" t="s">
-        <v>700</v>
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="92">
+        <f>F32*(1-E33-E34-E43)</f>
+        <v>4004</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" t="s">
+        <v>432</v>
+      </c>
+      <c r="J43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>702</v>
+      </c>
+      <c r="B44" t="s">
+        <v>692</v>
+      </c>
+      <c r="D44" s="9">
+        <f>D43*Parameters!C$16*Parameters!$C$5/1000*E44</f>
+        <v>20.842250000000003</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>703</v>
+      </c>
+      <c r="B45" t="s">
+        <v>693</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>707</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>692</v>
       </c>
-      <c r="D43" s="9">
-        <f>E43*E42*D40*Parameters!C16*Parameters!C5/1000</f>
+      <c r="D46" s="9">
+        <f>E46*E45*D43*Parameters!C16*Parameters!C5/1000</f>
         <v>3.3347600000000002</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E46" s="10">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H46" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>396</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="18">
-        <f>D41+D43</f>
+      <c r="D47" s="18">
+        <f>D44+D46</f>
         <v>24.177010000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1">
-      <c r="A45" s="3" t="s">
+    <row r="48" spans="1:10" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="20">
-        <f>D39+D44</f>
-        <v>25.677010000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="13" customFormat="1">
-      <c r="A46" s="13" t="s">
+      <c r="C48" s="20">
+        <f>D42+D47</f>
+        <v>43.199976054640004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="13" customFormat="1">
+      <c r="A49" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="108"/>
-    </row>
-    <row r="47" spans="1:10" s="117" customFormat="1" ht="14">
-      <c r="A47" s="117" t="s">
+      <c r="D49" s="108"/>
+    </row>
+    <row r="50" spans="1:11" s="117" customFormat="1" ht="14">
+      <c r="A50" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="B47" s="117" t="s">
+      <c r="B50" s="117" t="s">
         <v>713</v>
       </c>
-      <c r="C47" s="212"/>
-      <c r="D47" s="212"/>
-      <c r="F47" s="221">
+      <c r="C50" s="212"/>
+      <c r="D50" s="212"/>
+      <c r="F50" s="221">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H47" s="117" t="s">
+      <c r="H50" s="117" t="s">
         <v>670</v>
       </c>
-      <c r="I47" s="117" t="s">
+      <c r="I50" s="117" t="s">
         <v>710</v>
       </c>
-      <c r="J47" s="117" t="s">
+      <c r="J50" s="117" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="117" customFormat="1" ht="14">
-      <c r="A48" s="117" t="s">
+    <row r="51" spans="1:11" s="117" customFormat="1" ht="14">
+      <c r="A51" s="117" t="s">
         <v>722</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="B51" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="F48" s="206">
+      <c r="C51" s="212"/>
+      <c r="D51" s="212"/>
+      <c r="F51" s="206">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I48" s="117">
+      <c r="I51" s="117">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="47" customFormat="1">
-      <c r="A49" s="117" t="s">
+    <row r="52" spans="1:11" s="47" customFormat="1">
+      <c r="A52" s="117" t="s">
         <v>540</v>
       </c>
-      <c r="B49" s="232" t="s">
+      <c r="B52" s="232" t="s">
         <v>711</v>
       </c>
-      <c r="C49" s="235">
-        <f>-D49*Parameters!C17</f>
-        <v>-84.966161861607617</v>
-      </c>
-      <c r="D49" s="212">
-        <f>F47*(1-F48)</f>
+      <c r="C52" s="235">
+        <f>-D58*Parameters!C17</f>
+        <v>-33.986464744643051</v>
+      </c>
+      <c r="D52" s="285">
+        <f>F50*(1-F51)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F49" s="170"/>
-      <c r="J49" s="204" t="s">
-        <v>669</v>
-      </c>
-      <c r="K49" s="191"/>
-    </row>
-    <row r="50" spans="1:11" s="44" customFormat="1">
-      <c r="A50" s="45" t="s">
+      <c r="F52" s="170"/>
+      <c r="J52" s="267" t="s">
+        <v>934</v>
+      </c>
+      <c r="K52" s="191"/>
+    </row>
+    <row r="53" spans="1:11" s="47" customFormat="1">
+      <c r="A53" s="117" t="s">
+        <v>925</v>
+      </c>
+      <c r="B53" s="267" t="s">
+        <v>926</v>
+      </c>
+      <c r="D53" s="235">
+        <f>F11*0.7</f>
+        <v>63.146999999999991</v>
+      </c>
+      <c r="F53" s="170"/>
+      <c r="J53" s="204"/>
+      <c r="K53" s="191"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="117" t="s">
+        <v>935</v>
+      </c>
+      <c r="B54" t="s">
+        <v>922</v>
+      </c>
+      <c r="D54" s="21">
+        <f>(D53)*12/16</f>
+        <v>47.360249999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="117" t="s">
+        <v>927</v>
+      </c>
+      <c r="B55" t="s">
+        <v>923</v>
+      </c>
+      <c r="D55" s="21">
+        <f>D53/0.6-D53</f>
+        <v>42.097999999999999</v>
+      </c>
+      <c r="J55" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="117" t="s">
+        <v>932</v>
+      </c>
+      <c r="B56" t="s">
+        <v>933</v>
+      </c>
+      <c r="D56" s="21">
+        <f>D55*12/44</f>
+        <v>11.481272727272726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="117" t="s">
+        <v>928</v>
+      </c>
+      <c r="B57" t="s">
+        <v>929</v>
+      </c>
+      <c r="D57" s="86">
+        <f>F50-D56-D54</f>
+        <v>86.898034496754022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="117" t="s">
+        <v>930</v>
+      </c>
+      <c r="D58" s="86">
+        <f>D52*(F58)</f>
+        <v>9.2690358394481045</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="53">
+        <f>D58/D57</f>
+        <v>0.10666565582440578</v>
+      </c>
+      <c r="I58" t="s">
+        <v>931</v>
+      </c>
+      <c r="J58" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="44" customFormat="1">
+      <c r="A60" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="184">
-        <f>C23+C37+C45+C49</f>
-        <v>-18.981166646737847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="45" customFormat="1">
-      <c r="A51" s="45" t="s">
+      <c r="C60" s="184">
+        <f>C23+C37+C48+C52</f>
+        <v>49.521496524866727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="45" customFormat="1">
+      <c r="A61" s="45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="93">
-        <f>D40-D40*E41-D40*E42-D40*0.02</f>
+      <c r="C62" s="91"/>
+      <c r="D62" s="93">
+        <f>D43-D43*E44-D43*E45-D43*0.02</f>
         <v>3073.0699999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1">
-      <c r="A53" s="6" t="s">
+    <row r="63" spans="1:11" s="6" customFormat="1">
+      <c r="A63" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="18">
-        <f>D52*E53</f>
+      <c r="D63" s="18">
+        <f>D62*E63</f>
         <v>1229.2280000000001</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E63" s="10">
         <v>0.4</v>
       </c>
-      <c r="H53" s="94">
+      <c r="H63" s="94">
         <f>-'[2]Fertilizer literature'!I1</f>
         <v>0</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
         <v>400</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B64" t="s">
         <v>401</v>
       </c>
-      <c r="D54" s="18">
-        <f>G54*D53/1000</f>
+      <c r="D64" s="18">
+        <f>G64*D63/1000</f>
         <v>-8.3587504000000017</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G64" s="4">
         <v>-6.8</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I64" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
         <v>405</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B65" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="18">
-        <f>G55*D53/1000</f>
+      <c r="D65" s="18">
+        <f>G65*D63/1000</f>
         <v>-6.6378312000000008</v>
       </c>
-      <c r="G55">
+      <c r="G65">
         <v>-5.4</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I65" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1">
-      <c r="A56" s="3" t="s">
+    <row r="66" spans="1:9" s="3" customFormat="1">
+      <c r="A66" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="20">
-        <f>D54+D55</f>
+      <c r="C66" s="20">
+        <f>D64+D65</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D56" s="239"/>
-    </row>
-    <row r="57" spans="1:11" s="6" customFormat="1">
-      <c r="A57" s="88" t="s">
+      <c r="D66" s="239"/>
+    </row>
+    <row r="67" spans="1:9" s="6" customFormat="1">
+      <c r="A67" s="88" t="s">
         <v>720</v>
       </c>
-      <c r="C57" s="240">
-        <f>C50+C56</f>
-        <v>-33.977748246737846</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" s="6" customFormat="1">
-      <c r="A58" s="88"/>
-      <c r="C58" s="109"/>
-    </row>
-    <row r="59" spans="1:11" s="6" customFormat="1">
-      <c r="A59" s="88"/>
-      <c r="C59" s="109"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="C60" s="86"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="7"/>
-      <c r="C61" s="86"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="7" t="s">
+      <c r="C67" s="240">
+        <f>C60+C66</f>
+        <v>34.524914924866721</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" s="6" customFormat="1">
+      <c r="A68" s="88"/>
+      <c r="C68" s="109"/>
+    </row>
+    <row r="69" spans="1:9" s="6" customFormat="1">
+      <c r="A69" s="88"/>
+      <c r="C69" s="109"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="C70" s="86"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="7"/>
+      <c r="C71" s="86"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H62" s="105"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="68" spans="6:7" ht="16">
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
+      <c r="H72" s="105"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="78" spans="1:9" ht="16">
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18066,10 +18399,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18212,361 +18545,383 @@
         <v>38</v>
       </c>
       <c r="C7" s="95">
-        <f>C8+C10</f>
-        <v>35.314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
+        <f>C10+C12</f>
+        <v>52.836966054640001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="A8" s="46" t="s">
+        <v>909</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C8" s="233"/>
+      <c r="E8" s="236">
+        <f>GlobalFactors!E6</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="A9" s="46" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="233"/>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="22">
-        <f>1.5*E8/20</f>
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="234">
-        <v>20</v>
-      </c>
-      <c r="G8" s="241" t="s">
+      <c r="C10" s="9">
+        <f>E9*E8*(GlobalFactors!E3+GlobalFactors!E4)</f>
+        <v>19.022966054640001</v>
+      </c>
+      <c r="G10" s="241" t="s">
         <v>723</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>406</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="F9" s="8">
+      <c r="D11" s="92"/>
+      <c r="F11" s="8">
         <f>Parameters!G34</f>
         <v>5600</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="18">
-        <f>D12+D15</f>
-        <v>33.814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>702</v>
-      </c>
-      <c r="B11" t="s">
-        <v>692</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="E11" s="4">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9">
-        <f>F9*Parameters!C$16*Parameters!$C$5/1000*E11</f>
-        <v>29.150000000000002</v>
+      <c r="C12" s="18">
+        <f>D14+D17</f>
+        <v>33.814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B13" t="s">
         <v>692</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="C13" s="18"/>
       <c r="E13" s="4">
-        <v>0.01</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>701</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>703</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>693</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>700</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="9">
+        <f>F11*Parameters!C$16*Parameters!$C$5/1000*E13</f>
+        <v>29.150000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" t="s">
+        <v>693</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9">
-        <f>F9*Parameters!C$16*Parameters!$C$5/1000*E13*E14</f>
+      <c r="D17" s="9">
+        <f>F11*Parameters!C$16*Parameters!$C$5/1000*E15*E16</f>
         <v>4.6640000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="13" customFormat="1">
-      <c r="A16" s="13" t="s">
+    <row r="18" spans="1:11" s="13" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D16" s="108"/>
-    </row>
-    <row r="17" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A17" s="117" t="s">
+      <c r="D18" s="108"/>
+    </row>
+    <row r="19" spans="1:11" s="117" customFormat="1" ht="14">
+      <c r="A19" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B19" s="117" t="s">
         <v>713</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="F17" s="221">
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="F19" s="221">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H19" s="117" t="s">
         <v>670</v>
       </c>
-      <c r="I17" s="117" t="s">
+      <c r="I19" s="117" t="s">
         <v>710</v>
       </c>
-      <c r="J17" s="117" t="s">
+      <c r="J19" s="117" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A18" s="117" t="s">
+    <row r="20" spans="1:11" s="117" customFormat="1" ht="14">
+      <c r="A20" s="117" t="s">
         <v>770</v>
       </c>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="117">
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="117">
         <v>1</v>
       </c>
-      <c r="F18" s="221"/>
-    </row>
-    <row r="19" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A19" s="117" t="s">
+      <c r="F20" s="221"/>
+    </row>
+    <row r="21" spans="1:11" s="117" customFormat="1" ht="14">
+      <c r="A21" s="117" t="s">
         <v>722</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B21" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="F19" s="206">
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="F21" s="206">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I21" s="117">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="47" customFormat="1">
-      <c r="A20" s="117" t="s">
+    <row r="22" spans="1:11" s="47" customFormat="1">
+      <c r="A22" s="117" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B22" s="232" t="s">
         <v>711</v>
       </c>
-      <c r="C20" s="235">
-        <f>-D20*Parameters!C17</f>
+      <c r="C22" s="235">
+        <f>-D22*Parameters!C17</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D20" s="212">
-        <f>F17*(1-F19)</f>
+      <c r="D22" s="212">
+        <f>F19*(1-F21)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="J20" s="204" t="s">
+      <c r="F22" s="170"/>
+      <c r="J22" s="204" t="s">
         <v>669</v>
       </c>
-      <c r="K20" s="191"/>
-    </row>
-    <row r="21" spans="1:11" s="44" customFormat="1">
-      <c r="A21" s="45" t="s">
+      <c r="K22" s="191"/>
+    </row>
+    <row r="23" spans="1:11" s="44" customFormat="1">
+      <c r="A23" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="184">
-        <f>C20+C7</f>
-        <v>-49.652161861607617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="45" customFormat="1">
-      <c r="A22" s="45" t="s">
+      <c r="C23" s="184">
+        <f>C22+C7</f>
+        <v>-32.129195806967616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="45" customFormat="1">
+      <c r="A24" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="243">
-        <f>D26+D27</f>
+      <c r="C24" s="243">
+        <f>D28+D29</f>
         <v>-20.974240000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="45" customFormat="1">
-      <c r="A23" s="88" t="s">
+    <row r="25" spans="1:11" s="45" customFormat="1">
+      <c r="A25" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B25" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="10">
+      <c r="C25" s="242"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="10">
         <v>0.02</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" t="s">
         <v>432</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>618</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="93">
-        <f>F9-F9*E11-F9*E14-F9*F23</f>
+      <c r="C26" s="91"/>
+      <c r="D26" s="93">
+        <f>F11-F11*E13-F11*E16-F11*F25</f>
         <v>4298</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
         <v>402</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="9">
-        <f>D24*F25</f>
+      <c r="D27" s="9">
+        <f>D26*F27</f>
         <v>1719.2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <f>GlobalFactors!E8</f>
         <v>0.4</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" t="s">
+      <c r="G27" s="94"/>
+      <c r="H27" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>610</v>
-      </c>
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="9">
-        <f>F26*D25/1000</f>
-        <v>-11.69056</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-6.8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>615</v>
-      </c>
-      <c r="H26" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>542</v>
-      </c>
-      <c r="B27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="9">
-        <f>F27*D25/1000</f>
-        <v>-9.2836800000000004</v>
-      </c>
-      <c r="F27" s="10">
-        <f>AD!G55</f>
-        <v>-5.4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>614</v>
-      </c>
-      <c r="H27" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B28" t="s">
-        <v>612</v>
+        <v>401</v>
       </c>
       <c r="D28" s="9">
-        <f>F28*D25/1000</f>
-        <v>3.4384000000000001</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2</v>
+        <f>F28*D27/1000</f>
+        <v>-11.69056</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-6.8</v>
       </c>
       <c r="G28" t="s">
-        <v>724</v>
+        <v>615</v>
+      </c>
+      <c r="H28" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="9">
+        <f>F29*D27/1000</f>
+        <v>-9.2836800000000004</v>
+      </c>
+      <c r="F29" s="10">
+        <f>AD!G65</f>
+        <v>-5.4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>614</v>
+      </c>
+      <c r="H29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" t="s">
+        <v>612</v>
+      </c>
+      <c r="D30" s="9">
+        <f>F30*D27/1000</f>
+        <v>3.4384000000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>609</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="F29" s="4">
+      <c r="D31" s="9"/>
+      <c r="F31" s="4">
         <v>0.75</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="44" customFormat="1">
-      <c r="A30" s="45" t="s">
+    <row r="32" spans="1:11" s="44" customFormat="1">
+      <c r="A32" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="96">
-        <f>C21+C22</f>
-        <v>-70.626401861607619</v>
+      <c r="C32" s="96">
+        <f>C23+C24</f>
+        <v>-53.103435806967617</v>
       </c>
     </row>
   </sheetData>
@@ -18584,8 +18939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18867,15 +19222,15 @@
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="178"/>
@@ -18922,7 +19277,7 @@
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>30</v>
@@ -18952,14 +19307,14 @@
         <v>630</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E24" s="4">
         <f>GlobalFactors!E44</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="I24">
         <f>GlobalFactors!F44</f>
@@ -18985,7 +19340,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>30</v>
@@ -19005,7 +19360,7 @@
       </c>
       <c r="C27" s="40">
         <f>C33</f>
-        <v>-16.993232372321518</v>
+        <v>-16.993232372321526</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" hidden="1">
@@ -19046,7 +19401,7 @@
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="86"/>
@@ -19056,19 +19411,19 @@
       </c>
       <c r="E30" s="109"/>
       <c r="J30" s="6" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="K30" s="109"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D31" s="86">
         <f>F17*(1-F31)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F31" s="282">
+      <c r="F31" s="281">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
@@ -19077,7 +19432,7 @@
         <v>0.37857142857142867</v>
       </c>
       <c r="H31" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="I31" s="105"/>
       <c r="J31" s="7" t="s">
@@ -19086,29 +19441,28 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="14" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="86"/>
       <c r="D32" s="86">
-        <f>D31*(1-E32)</f>
-        <v>4.6345179197240505</v>
+        <f>D31*(E32)</f>
+        <v>4.6345179197240522</v>
       </c>
       <c r="E32" s="4">
-        <f>GlobalFactors!E45</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="86">
         <f>D32/D30</f>
-        <v>7.5714285714285706E-2</v>
+        <v>7.5714285714285734E-2</v>
       </c>
       <c r="H32" t="s">
         <v>673</v>
       </c>
       <c r="I32" s="86"/>
       <c r="J32" s="7" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -19120,13 +19474,13 @@
       </c>
       <c r="C33" s="86">
         <f>D32*-44/12</f>
-        <v>-16.993232372321518</v>
+        <v>-16.993232372321526</v>
       </c>
       <c r="D33" s="86"/>
       <c r="F33" s="274"/>
       <c r="I33" s="169"/>
       <c r="J33" s="7" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="45" customFormat="1">
@@ -19230,7 +19584,7 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="284">
+      <c r="C39" s="282">
         <f>D39*Parameters!C16*Parameters!C5</f>
         <v>34.855071428571421</v>
       </c>
@@ -19241,12 +19595,12 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
       <c r="J40" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1">
@@ -19255,7 +19609,7 @@
       </c>
       <c r="C41" s="246">
         <f>C12+C16+C27+C34</f>
-        <v>111.4775520463408</v>
+        <v>111.47755204634079</v>
       </c>
       <c r="D41" s="246"/>
     </row>
@@ -19337,7 +19691,7 @@
       <c r="D46" s="179"/>
       <c r="E46" s="180"/>
       <c r="G46" s="88">
-        <f>'Land application'!F27</f>
+        <f>'Land application'!F29</f>
         <v>-5.4</v>
       </c>
       <c r="H46" s="88" t="s">

--- a/GHGimpactsfoodwastes_AR5_9_12_15.xlsx
+++ b/GHGimpactsfoodwastes_AR5_9_12_15.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="943">
   <si>
     <t>Hauling</t>
   </si>
@@ -2132,9 +2132,6 @@
     <t>Wood and Cowie</t>
   </si>
   <si>
-    <t>Substitution ratio</t>
-  </si>
-  <si>
     <t>N effective</t>
   </si>
   <si>
@@ -2884,9 +2881,6 @@
     <t>Compost_xportToField</t>
   </si>
   <si>
-    <t>Compost_N_remaining</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -2996,9 +2990,6 @@
   </si>
   <si>
     <t xml:space="preserve">Boldrin, 2009, </t>
-  </si>
-  <si>
-    <t>N_effective</t>
   </si>
   <si>
     <t>based on Dalemo et al. 1997, Vogt et al. 2002, Brinkmann et al.
@@ -3171,6 +3162,21 @@
   </si>
   <si>
     <t>calculated from Bruun, 2006</t>
+  </si>
+  <si>
+    <t>Compost_N_loss</t>
+  </si>
+  <si>
+    <t>N availability</t>
+  </si>
+  <si>
+    <t>N_availabilityfactor</t>
+  </si>
+  <si>
+    <t>trying to get .04-.14%</t>
+  </si>
+  <si>
+    <t>AD_CS-factor</t>
   </si>
 </sst>
 </file>
@@ -3890,7 +3896,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3918,6 +3924,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4439,7 +4451,6 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="36" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4748,10 +4759,11 @@
     <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="441">
     <cellStyle name="Bad 2" xfId="17"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="18"/>
@@ -4966,6 +4978,9 @@
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -5178,6 +5193,9 @@
     <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="21"/>
@@ -5512,11 +5530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144242728"/>
-        <c:axId val="-2127516120"/>
+        <c:axId val="-2035256808"/>
+        <c:axId val="-2035252440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144242728"/>
+        <c:axId val="-2035256808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127516120"/>
+        <c:crossAx val="-2035252440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5534,7 +5552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127516120"/>
+        <c:axId val="-2035252440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5545,7 +5563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144242728"/>
+        <c:crossAx val="-2035256808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6027,11 +6045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126540440"/>
-        <c:axId val="2121279016"/>
+        <c:axId val="-2035168520"/>
+        <c:axId val="-2035165544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126540440"/>
+        <c:axId val="-2035168520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6041,7 +6059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121279016"/>
+        <c:crossAx val="-2035165544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6049,7 +6067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121279016"/>
+        <c:axId val="-2035165544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,14 +6090,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126540440"/>
+        <c:crossAx val="-2035168520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7131,11 +7148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="256"/>
-        <c:axId val="-2109343640"/>
-        <c:axId val="-2127552312"/>
+        <c:axId val="-2034979992"/>
+        <c:axId val="-2034971608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2109343640"/>
+        <c:axId val="-2034979992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,7 +7172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127552312"/>
+        <c:crossAx val="-2034971608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7163,7 +7180,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127552312"/>
+        <c:axId val="-2034971608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7192,7 +7209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109343640"/>
+        <c:crossAx val="-2034979992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7727,7 +7744,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="44" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>14</v>
@@ -7735,8 +7752,8 @@
       <c r="C1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="200" t="s">
-        <v>643</v>
+      <c r="D1" s="199" t="s">
+        <v>642</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>2</v>
@@ -7747,47 +7764,47 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C2" s="197">
+        <v>666</v>
+      </c>
+      <c r="C2" s="196">
         <f>J66</f>
         <v>0.44445499769952745</v>
       </c>
       <c r="F2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" t="s">
         <v>666</v>
       </c>
-      <c r="B3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C3" s="197">
+      <c r="C3" s="196">
         <f>J65</f>
         <v>0.53090857076072773</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="197">
+        <v>666</v>
+      </c>
+      <c r="C4" s="196">
         <f>J67</f>
         <v>0.77143668844394409</v>
       </c>
       <c r="F4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -7797,12 +7814,12 @@
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="198">
+      <c r="C5" s="197">
         <v>265</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -7818,12 +7835,12 @@
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="198">
+      <c r="C6" s="197">
         <v>28</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -7834,141 +7851,141 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C7" s="195">
+        <v>645</v>
+      </c>
+      <c r="C7" s="194">
         <v>0.45</v>
       </c>
       <c r="D7" t="s">
         <v>552</v>
       </c>
       <c r="E7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="47" customFormat="1">
-      <c r="A8" s="117" t="s">
-        <v>652</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>650</v>
-      </c>
-      <c r="C8" s="199" t="s">
+      <c r="A8" s="116" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>649</v>
+      </c>
+      <c r="C8" s="198" t="s">
         <v>466</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="120">
         <f>34003/1000000</f>
         <v>3.4002999999999999E-2</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:18" s="47" customFormat="1">
-      <c r="A9" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="199"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" spans="1:18" s="106" customFormat="1" ht="14">
-      <c r="A10" s="106" t="s">
+      <c r="A9" s="116" t="s">
+        <v>784</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="198"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+    </row>
+    <row r="10" spans="1:18" s="105" customFormat="1" ht="14">
+      <c r="A10" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="B10" s="112" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="122">
+      <c r="B10" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="C10" s="198"/>
+      <c r="D10" s="121">
         <f>F10/1000*F8</f>
         <v>2.6982740619999999</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="117">
         <v>79354</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="111" t="s">
         <v>590</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="106" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="105" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="106" customFormat="1" ht="14">
-      <c r="A11" s="106" t="s">
+    <row r="11" spans="1:18" s="105" customFormat="1" ht="14">
+      <c r="A11" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="B11" s="112" t="s">
-        <v>651</v>
-      </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="122">
+      <c r="B11" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" s="198"/>
+      <c r="D11" s="121">
         <f>F11/1000*F8*Parameters!C5</f>
         <v>1.8021590000000001E-2</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="117">
         <v>2</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="111" t="s">
         <v>467</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="106" t="s">
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="105" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="27" customFormat="1" ht="14">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>651</v>
-      </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="123">
+      <c r="B12" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="195"/>
+      <c r="D12" s="122">
         <f>F12*Parameters!C6/1000*F8</f>
         <v>4.1986904399999997E-3</v>
       </c>
       <c r="F12" s="27">
         <v>4.41</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="111" t="s">
         <v>467</v>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="106" t="s">
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="105" t="s">
         <v>459</v>
       </c>
-      <c r="N12" s="112"/>
-      <c r="R12" s="120"/>
+      <c r="N12" s="111"/>
+      <c r="R12" s="119"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C13" s="272">
+        <v>644</v>
+      </c>
+      <c r="C13" s="271">
         <f>SUM(D10:D12)</f>
         <v>2.7204943424399999</v>
       </c>
       <c r="E13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -7981,7 +7998,7 @@
       <c r="B14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="198">
+      <c r="C14" s="197">
         <v>533.66</v>
       </c>
       <c r="E14" t="s">
@@ -7993,10 +8010,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="198"/>
+      <c r="C15" s="197"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:18">
@@ -8021,7 +8038,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>117</v>
@@ -8041,7 +8058,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>117</v>
@@ -8066,7 +8083,7 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="198">
+      <c r="C19" s="197">
         <v>0.67</v>
       </c>
       <c r="D19" s="1"/>
@@ -8085,7 +8102,7 @@
       <c r="B20" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="196">
+      <c r="C20" s="195">
         <v>35315</v>
       </c>
       <c r="E20" s="27"/>
@@ -8102,132 +8119,132 @@
     <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="P23" s="69" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="44" customFormat="1">
       <c r="A24" s="45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="37" thickBot="1">
+      <c r="A25" s="158" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="159" t="s">
-        <v>663</v>
-      </c>
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="158" t="s">
         <v>407</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="158" t="s">
         <v>528</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="158" t="s">
         <v>451</v>
       </c>
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="159" t="s">
+      <c r="F25" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="159" t="s">
+      <c r="G25" s="158" t="s">
         <v>408</v>
       </c>
-      <c r="H25" s="159" t="s">
+      <c r="H25" s="158" t="s">
         <v>481</v>
       </c>
-      <c r="I25" s="159" t="s">
+      <c r="I25" s="158" t="s">
         <v>473</v>
       </c>
-      <c r="J25" s="159" t="s">
-        <v>635</v>
-      </c>
-      <c r="K25" s="159" t="s">
+      <c r="J25" s="158" t="s">
+        <v>634</v>
+      </c>
+      <c r="K25" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="L25" s="159" t="s">
+      <c r="L25" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="M25" s="159" t="s">
+      <c r="M25" s="158" t="s">
         <v>532</v>
       </c>
-      <c r="N25" s="162" t="s">
+      <c r="N25" s="161" t="s">
         <v>533</v>
       </c>
-      <c r="O25" s="159" t="s">
+      <c r="O25" s="158" t="s">
         <v>534</v>
       </c>
-      <c r="P25" s="168" t="s">
-        <v>767</v>
+      <c r="P25" s="167" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17" thickTop="1" thickBot="1">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="148" t="s">
+        <v>732</v>
+      </c>
+      <c r="B26" s="151"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="154"/>
+    </row>
+    <row r="27" spans="1:17" ht="16" thickBot="1">
+      <c r="A27" s="148" t="s">
         <v>733</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="155"/>
-    </row>
-    <row r="27" spans="1:17" ht="16" thickBot="1">
-      <c r="A27" s="149" t="s">
-        <v>734</v>
-      </c>
-      <c r="B27" s="152">
+      <c r="B27" s="151">
         <v>0.3</v>
       </c>
-      <c r="C27" s="155">
+      <c r="C27" s="154">
         <v>0.9</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>C27*B27</f>
         <v>0.27</v>
       </c>
-      <c r="E27" s="258">
+      <c r="E27" s="257">
         <f>F27/D27</f>
         <v>334.11111111111109</v>
       </c>
-      <c r="F27" s="252">
+      <c r="F27" s="251">
         <f>H27*B27</f>
         <v>90.21</v>
       </c>
-      <c r="G27" s="275">
+      <c r="G27" s="274">
         <v>9000</v>
       </c>
-      <c r="H27" s="258">
+      <c r="H27" s="257">
         <v>300.7</v>
       </c>
-      <c r="I27" s="252">
+      <c r="I27" s="251">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J27" s="257">
+      <c r="J27" s="256">
         <f>(Parameters!C3*Parameters!M27+Parameters!L27*Parameters!C4+Parameters!N27*Parameters!C2)*1000*B27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="K27" s="152"/>
-      <c r="L27" s="155">
+      <c r="K27" s="151"/>
+      <c r="L27" s="154">
         <v>0.1</v>
       </c>
-      <c r="M27" s="189">
+      <c r="M27" s="188">
         <v>0.1</v>
       </c>
-      <c r="N27" s="152">
+      <c r="N27" s="151">
         <v>0.8</v>
       </c>
-      <c r="O27" s="155">
+      <c r="O27" s="154">
         <v>0.84099999999999997</v>
       </c>
       <c r="P27" t="s">
@@ -8235,320 +8252,320 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1">
-      <c r="A28" s="149" t="s">
-        <v>643</v>
-      </c>
-      <c r="B28" s="152" t="s">
+      <c r="A28" s="148" t="s">
+        <v>642</v>
+      </c>
+      <c r="B28" s="151" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" s="154"/>
+      <c r="D28" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="149" t="s">
+      <c r="E28" s="257"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="148" t="s">
+        <v>541</v>
+      </c>
+      <c r="H28" s="151" t="s">
+        <v>671</v>
+      </c>
+      <c r="I28" s="154"/>
+      <c r="J28" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="151"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="154" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16" thickBot="1">
+      <c r="A29" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="151"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="E28" s="258"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="149" t="s">
+      <c r="K29" s="151"/>
+      <c r="L29" s="154" t="s">
+        <v>668</v>
+      </c>
+      <c r="M29" s="159" t="s">
+        <v>668</v>
+      </c>
+      <c r="N29" s="151" t="s">
+        <v>668</v>
+      </c>
+      <c r="O29" s="154" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickBot="1">
+      <c r="A30" s="148"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="148" t="s">
         <v>541</v>
       </c>
-      <c r="H28" s="152" t="s">
-        <v>672</v>
-      </c>
-      <c r="I28" s="155"/>
-      <c r="J28" s="149" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="152"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="155" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16" thickBot="1">
-      <c r="A29" s="149" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="258"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="149" t="s">
-        <v>674</v>
-      </c>
-      <c r="K29" s="152"/>
-      <c r="L29" s="155" t="s">
-        <v>669</v>
-      </c>
-      <c r="M29" s="160" t="s">
-        <v>669</v>
-      </c>
-      <c r="N29" s="152" t="s">
-        <v>669</v>
-      </c>
-      <c r="O29" s="155" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1">
-      <c r="A30" s="149"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="149" t="s">
-        <v>541</v>
-      </c>
-      <c r="K30" s="152"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="155"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="154"/>
     </row>
     <row r="31" spans="1:17" ht="16" thickBot="1">
-      <c r="A31" s="149"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="149">
+      <c r="A31" s="148"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="148">
         <f>E27*D27</f>
         <v>90.21</v>
       </c>
-      <c r="K31" s="152"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="155"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="154"/>
     </row>
     <row r="32" spans="1:17" ht="16" thickBot="1">
-      <c r="A32" s="149"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="258"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="149" t="s">
-        <v>672</v>
-      </c>
-      <c r="K32" s="152"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="155"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="148" t="s">
+        <v>671</v>
+      </c>
+      <c r="K32" s="151"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="154"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1">
-      <c r="A33" s="149" t="s">
-        <v>736</v>
-      </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="258"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="155"/>
+      <c r="A33" s="148" t="s">
+        <v>735</v>
+      </c>
+      <c r="B33" s="151"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="154"/>
     </row>
     <row r="34" spans="1:20" ht="16" thickBot="1">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="152">
+      <c r="B34" s="151">
         <v>0.18</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="154">
         <f>D34/B34</f>
         <v>0.94444444444444453</v>
       </c>
-      <c r="D34" s="149">
+      <c r="D34" s="148">
         <v>0.17</v>
       </c>
-      <c r="E34" s="258">
+      <c r="E34" s="257">
         <v>887</v>
       </c>
-      <c r="F34" s="252">
+      <c r="F34" s="251">
         <v>150.79</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="148">
         <f>0.0056*1000000</f>
         <v>5600</v>
       </c>
-      <c r="H34" s="152"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="101" t="s">
+      <c r="H34" s="151"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="100" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="16" thickBot="1">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="153">
+      <c r="B35" s="152">
         <f>(1-0.927)</f>
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="C35" s="156">
+      <c r="C35" s="155">
         <f t="shared" ref="C35" si="0">D35/B35</f>
         <v>0.68493150684931559</v>
       </c>
-      <c r="D35" s="150">
+      <c r="D35" s="149">
         <v>0.05</v>
       </c>
-      <c r="E35" s="276">
+      <c r="E35" s="275">
         <v>300</v>
       </c>
-      <c r="F35" s="253">
+      <c r="F35" s="252">
         <v>15</v>
       </c>
-      <c r="G35" s="150">
+      <c r="G35" s="149">
         <v>580</v>
       </c>
-      <c r="H35" s="153"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="156">
+      <c r="H35" s="152"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="155">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="M35" s="160">
+      <c r="M35" s="159">
         <f>0.009/0.073</f>
         <v>0.12328767123287671</v>
       </c>
-      <c r="N35" s="153">
+      <c r="N35" s="152">
         <f>0.049/0.073</f>
         <v>0.67123287671232879</v>
       </c>
-      <c r="O35" s="156"/>
+      <c r="O35" s="155"/>
       <c r="P35" s="24" t="s">
         <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="17" thickTop="1" thickBot="1">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="148" t="s">
+        <v>738</v>
+      </c>
+      <c r="B36" s="151"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:20" ht="16" thickBot="1">
+      <c r="A37" s="148" t="s">
         <v>739</v>
       </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="252"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="189"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="24"/>
-    </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1">
-      <c r="A37" s="149" t="s">
-        <v>740</v>
-      </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="155"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="154"/>
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:20" ht="16" thickBot="1">
-      <c r="A38" s="149" t="s">
+      <c r="A38" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="152">
+      <c r="B38" s="151">
         <f>(1-7%)</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <v>0.8</v>
       </c>
-      <c r="D38" s="149">
+      <c r="D38" s="148">
         <f>B38*C38</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="E38" s="258"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="149">
+      <c r="E38" s="257"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="148">
         <v>1100</v>
       </c>
-      <c r="H38" s="152"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="155">
+      <c r="H38" s="151"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="154">
         <f>0.029/D38</f>
         <v>3.8978494623655914E-2</v>
       </c>
-      <c r="M38" s="160">
+      <c r="M38" s="159">
         <f>0.05/D38</f>
         <v>6.7204301075268827E-2</v>
       </c>
-      <c r="N38" s="152">
+      <c r="N38" s="151">
         <f>0.56/D38</f>
         <v>0.75268817204301086</v>
       </c>
-      <c r="O38" s="155"/>
+      <c r="O38" s="154"/>
       <c r="P38" t="s">
         <v>422</v>
       </c>
       <c r="Q38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="16" thickBot="1">
-      <c r="A39" s="248" t="s">
-        <v>735</v>
-      </c>
-      <c r="B39" s="249"/>
-      <c r="C39" s="249"/>
-      <c r="D39" s="249"/>
-      <c r="H39" s="250"/>
-      <c r="I39" s="250"/>
-      <c r="J39" s="250"/>
+      <c r="A39" s="247" t="s">
+        <v>734</v>
+      </c>
+      <c r="B39" s="248"/>
+      <c r="C39" s="248"/>
+      <c r="D39" s="248"/>
+      <c r="H39" s="249"/>
+      <c r="I39" s="249"/>
+      <c r="J39" s="249"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
       <c r="M39" s="59"/>
@@ -8557,395 +8574,395 @@
       <c r="P39" s="24"/>
     </row>
     <row r="40" spans="1:20" ht="16" thickBot="1">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="148" t="s">
         <v>516</v>
       </c>
-      <c r="B40" s="152">
+      <c r="B40" s="151">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="154">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D40" s="158">
+      <c r="D40" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E40" s="251">
+      <c r="E40" s="250">
         <v>465.3046875</v>
       </c>
-      <c r="F40" s="251"/>
-      <c r="G40" s="254">
+      <c r="F40" s="250"/>
+      <c r="G40" s="253">
         <v>14656.000000000002</v>
       </c>
-      <c r="K40" s="160">
+      <c r="K40" s="159">
         <v>0.03</v>
       </c>
-      <c r="L40" s="189">
+      <c r="L40" s="188">
         <v>0.11</v>
       </c>
-      <c r="M40" s="189">
+      <c r="M40" s="188">
         <v>0.1</v>
       </c>
-      <c r="N40" s="261">
+      <c r="N40" s="260">
         <v>0.76</v>
       </c>
-      <c r="O40" s="264">
+      <c r="O40" s="263">
         <v>0.94</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="16" thickBot="1">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="148" t="s">
         <v>517</v>
       </c>
-      <c r="B41" s="152">
+      <c r="B41" s="151">
         <v>0.105</v>
       </c>
-      <c r="C41" s="155">
+      <c r="C41" s="154">
         <v>0.90700000000000003</v>
       </c>
-      <c r="D41" s="155">
+      <c r="D41" s="154">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E41" s="252">
+      <c r="E41" s="251">
         <v>435.97247406272294</v>
       </c>
-      <c r="F41" s="252"/>
-      <c r="G41" s="255">
+      <c r="F41" s="251"/>
+      <c r="G41" s="254">
         <v>2520</v>
       </c>
-      <c r="K41" s="160">
+      <c r="K41" s="159">
         <v>0.09</v>
       </c>
-      <c r="L41" s="160">
+      <c r="L41" s="159">
         <v>0.02</v>
       </c>
-      <c r="M41" s="160">
+      <c r="M41" s="159">
         <v>0.15</v>
       </c>
-      <c r="N41" s="262">
+      <c r="N41" s="261">
         <v>0.74</v>
       </c>
-      <c r="O41" s="265">
+      <c r="O41" s="264">
         <v>0.98179823692937196</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="16" thickBot="1">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="B42" s="152">
+      <c r="B42" s="151">
         <v>0.29299999999999998</v>
       </c>
-      <c r="C42" s="155">
+      <c r="C42" s="154">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D42" s="155">
+      <c r="D42" s="154">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E42" s="252">
+      <c r="E42" s="251">
         <v>365.25479597205384</v>
       </c>
-      <c r="F42" s="252"/>
-      <c r="G42" s="255">
+      <c r="F42" s="251"/>
+      <c r="G42" s="254">
         <v>7969.6</v>
       </c>
-      <c r="K42" s="160">
+      <c r="K42" s="159">
         <v>0.01</v>
       </c>
-      <c r="L42" s="160">
+      <c r="L42" s="159">
         <v>0.04</v>
       </c>
-      <c r="M42" s="160">
+      <c r="M42" s="159">
         <v>0.17</v>
       </c>
-      <c r="N42" s="262">
+      <c r="N42" s="261">
         <v>0.79</v>
       </c>
-      <c r="O42" s="265">
+      <c r="O42" s="264">
         <v>0.79927679923149053</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="16" thickBot="1">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="B43" s="152">
+      <c r="B43" s="151">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="C43" s="155">
+      <c r="C43" s="154">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D43" s="155">
+      <c r="D43" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E43" s="252">
+      <c r="E43" s="251">
         <v>418.04822619567631</v>
       </c>
-      <c r="F43" s="252"/>
-      <c r="G43" s="255">
+      <c r="F43" s="251"/>
+      <c r="G43" s="254">
         <v>1232</v>
       </c>
-      <c r="K43" s="160">
+      <c r="K43" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="160">
+      <c r="L43" s="159">
         <v>0</v>
       </c>
-      <c r="M43" s="160">
+      <c r="M43" s="159">
         <v>0.1</v>
       </c>
-      <c r="N43" s="262">
+      <c r="N43" s="261">
         <v>0.82</v>
       </c>
-      <c r="O43" s="265">
+      <c r="O43" s="264">
         <v>0.97735385922437001</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="16" thickBot="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="148" t="s">
         <v>520</v>
       </c>
-      <c r="B44" s="152">
+      <c r="B44" s="151">
         <v>0.46600000000000003</v>
       </c>
-      <c r="C44" s="155">
+      <c r="C44" s="154">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D44" s="155">
+      <c r="D44" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E44" s="252">
+      <c r="E44" s="251">
         <v>483.41632472315138</v>
       </c>
-      <c r="F44" s="252"/>
-      <c r="G44" s="255">
+      <c r="F44" s="251"/>
+      <c r="G44" s="254">
         <v>13420.8</v>
       </c>
-      <c r="K44" s="160">
+      <c r="K44" s="159">
         <v>0.03</v>
       </c>
-      <c r="L44" s="160">
+      <c r="L44" s="159">
         <v>0.19</v>
       </c>
-      <c r="M44" s="160">
+      <c r="M44" s="159">
         <v>0.18</v>
       </c>
-      <c r="N44" s="262">
+      <c r="N44" s="261">
         <v>0.61</v>
       </c>
-      <c r="O44" s="265">
+      <c r="O44" s="264">
         <v>0.877478471550592</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="16" thickBot="1">
-      <c r="A45" s="149" t="s">
-        <v>671</v>
-      </c>
-      <c r="B45" s="152">
+      <c r="A45" s="148" t="s">
+        <v>670</v>
+      </c>
+      <c r="B45" s="151">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C45" s="155">
+      <c r="C45" s="154">
         <v>1</v>
       </c>
-      <c r="D45" s="155">
+      <c r="D45" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E45" s="252">
+      <c r="E45" s="251">
         <v>252.28816838661476</v>
       </c>
-      <c r="F45" s="252"/>
-      <c r="G45" s="255">
+      <c r="F45" s="251"/>
+      <c r="G45" s="254">
         <v>457.59999999999997</v>
       </c>
-      <c r="K45" s="160">
+      <c r="K45" s="159">
         <v>0</v>
       </c>
-      <c r="L45" s="160">
+      <c r="L45" s="159">
         <v>0.03</v>
       </c>
-      <c r="M45" s="160">
+      <c r="M45" s="159">
         <v>0.02</v>
       </c>
-      <c r="N45" s="262">
+      <c r="N45" s="261">
         <v>0.82</v>
       </c>
-      <c r="O45" s="265">
+      <c r="O45" s="264">
         <v>0.56096498593100275</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="16" thickBot="1">
-      <c r="A46" s="149" t="s">
+      <c r="A46" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="B46" s="152">
+      <c r="B46" s="151">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C46" s="155">
+      <c r="C46" s="154">
         <v>0.95</v>
       </c>
-      <c r="D46" s="155">
+      <c r="D46" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E46" s="252">
+      <c r="E46" s="251">
         <v>361.81791351010088</v>
       </c>
-      <c r="F46" s="252"/>
-      <c r="G46" s="255">
+      <c r="F46" s="251"/>
+      <c r="G46" s="254">
         <v>16315.200000000003</v>
       </c>
-      <c r="K46" s="160">
+      <c r="K46" s="159">
         <v>0.05</v>
       </c>
-      <c r="L46" s="160">
+      <c r="L46" s="159">
         <v>0.02</v>
       </c>
-      <c r="M46" s="160">
+      <c r="M46" s="159">
         <v>0.11</v>
       </c>
-      <c r="N46" s="262">
+      <c r="N46" s="261">
         <v>0.82</v>
       </c>
-      <c r="O46" s="265">
+      <c r="O46" s="264">
         <v>0.82380040804253563</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="16" thickBot="1">
-      <c r="A47" s="149" t="s">
+      <c r="A47" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="B47" s="152">
+      <c r="B47" s="151">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C47" s="155">
+      <c r="C47" s="154">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D47" s="155">
+      <c r="D47" s="154">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E47" s="252">
+      <c r="E47" s="251">
         <v>375.37065018315019</v>
       </c>
-      <c r="F47" s="252"/>
-      <c r="G47" s="255">
+      <c r="F47" s="251"/>
+      <c r="G47" s="254">
         <v>1398.3999999999999</v>
       </c>
-      <c r="K47" s="160">
+      <c r="K47" s="159">
         <v>0.11</v>
       </c>
-      <c r="L47" s="160">
+      <c r="L47" s="159">
         <v>0.02</v>
       </c>
-      <c r="M47" s="160">
+      <c r="M47" s="159">
         <v>0.23</v>
       </c>
-      <c r="N47" s="262">
+      <c r="N47" s="261">
         <v>0.66</v>
       </c>
-      <c r="O47" s="265">
+      <c r="O47" s="264">
         <v>0.90450759080277232</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="148" t="s">
         <v>524</v>
       </c>
-      <c r="B48" s="152">
+      <c r="B48" s="151">
         <v>0.92400000000000004</v>
       </c>
-      <c r="C48" s="155">
+      <c r="C48" s="154">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D48" s="155">
+      <c r="D48" s="154">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E48" s="252">
+      <c r="E48" s="251">
         <v>318.40468414280525</v>
       </c>
-      <c r="F48" s="252"/>
-      <c r="G48" s="255">
+      <c r="F48" s="251"/>
+      <c r="G48" s="254">
         <v>17740.8</v>
       </c>
-      <c r="K48" s="160">
+      <c r="K48" s="159">
         <v>0.02</v>
       </c>
-      <c r="L48" s="160">
+      <c r="L48" s="159">
         <v>0.01</v>
       </c>
-      <c r="M48" s="160">
+      <c r="M48" s="159">
         <v>0.12</v>
       </c>
-      <c r="N48" s="262">
+      <c r="N48" s="261">
         <v>0.85</v>
       </c>
-      <c r="O48" s="265">
+      <c r="O48" s="264">
         <v>0.73736998705248713</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16" thickBot="1">
-      <c r="A49" s="150" t="s">
+      <c r="A49" s="149" t="s">
         <v>525</v>
       </c>
-      <c r="B49" s="153">
+      <c r="B49" s="152">
         <v>0.309</v>
       </c>
-      <c r="C49" s="156">
+      <c r="C49" s="155">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D49" s="156">
+      <c r="D49" s="155">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E49" s="253">
+      <c r="E49" s="252">
         <v>454.20873548774478</v>
       </c>
-      <c r="F49" s="253"/>
-      <c r="G49" s="256">
+      <c r="F49" s="252"/>
+      <c r="G49" s="255">
         <v>6921.6000000000013</v>
       </c>
-      <c r="K49" s="161">
+      <c r="K49" s="160">
         <v>0.02</v>
       </c>
-      <c r="L49" s="161">
+      <c r="L49" s="160">
         <v>0.05</v>
       </c>
-      <c r="M49" s="161">
+      <c r="M49" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N49" s="263">
+      <c r="N49" s="262">
         <v>0.79</v>
       </c>
-      <c r="O49" s="266">
+      <c r="O49" s="265">
         <v>0.99060618444367532</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16" thickTop="1"/>
     <row r="54" spans="1:15" ht="16" thickBot="1">
-      <c r="A54" s="150" t="s">
+      <c r="A54" s="149" t="s">
         <v>526</v>
       </c>
-      <c r="B54" s="153">
+      <c r="B54" s="152">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C54" s="156">
+      <c r="C54" s="155">
         <v>0.83599999999999997</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <v>0.89600000000000002</v>
       </c>
-      <c r="K54" s="161">
+      <c r="K54" s="160">
         <v>0.16</v>
       </c>
-      <c r="L54" s="161">
+      <c r="L54" s="160">
         <v>0.01</v>
       </c>
-      <c r="M54" s="161">
+      <c r="M54" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N54" s="164">
+      <c r="N54" s="163">
         <v>0.69</v>
       </c>
-      <c r="O54" s="169"/>
+      <c r="O54" s="168"/>
     </row>
     <row r="55" spans="1:15" ht="16" thickTop="1">
-      <c r="A55" s="102"/>
+      <c r="A55" s="101"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
@@ -8962,100 +8979,100 @@
       <c r="A58" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="127" t="s">
         <v>492</v>
       </c>
       <c r="C58" t="s">
         <v>493</v>
       </c>
-      <c r="K58" s="129"/>
+      <c r="K58" s="128"/>
     </row>
     <row r="59" spans="1:15" ht="17">
       <c r="A59" t="s">
         <v>494</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="C59" s="129" t="s">
+      <c r="C59" s="128" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="M60" s="130"/>
-      <c r="N60" s="131"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="130"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="132"/>
-      <c r="B61" s="133" t="s">
+      <c r="A61" s="131"/>
+      <c r="B61" s="132" t="s">
         <v>497</v>
       </c>
-      <c r="C61" s="133" t="s">
+      <c r="C61" s="132" t="s">
         <v>498</v>
       </c>
-      <c r="D61" s="133" t="s">
+      <c r="D61" s="132" t="s">
         <v>499</v>
       </c>
-      <c r="E61" s="133" t="s">
+      <c r="E61" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="133" t="s">
+      <c r="F61" s="132" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="133" t="s">
         <v>501</v>
       </c>
-      <c r="B62" s="135">
+      <c r="B62" s="134">
         <v>12.0107</v>
       </c>
-      <c r="C62" s="135">
+      <c r="C62" s="134">
         <v>1.0079400000000001</v>
       </c>
-      <c r="D62" s="135">
+      <c r="D62" s="134">
         <v>15.9994</v>
       </c>
-      <c r="E62" s="135">
+      <c r="E62" s="134">
         <v>14.0067</v>
       </c>
-      <c r="F62" s="135">
+      <c r="F62" s="134">
         <v>32.064999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="136"/>
-      <c r="B64" s="137" t="s">
+      <c r="A64" s="135"/>
+      <c r="B64" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="C64" s="137" t="s">
+      <c r="C64" s="136" t="s">
         <v>503</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="136" t="s">
         <v>504</v>
       </c>
-      <c r="E64" s="137" t="s">
+      <c r="E64" s="136" t="s">
         <v>505</v>
       </c>
-      <c r="F64" s="138" t="s">
+      <c r="F64" s="137" t="s">
         <v>506</v>
       </c>
-      <c r="G64" s="138" t="s">
+      <c r="G64" s="137" t="s">
         <v>507</v>
       </c>
-      <c r="H64" s="139" t="s">
+      <c r="H64" s="138" t="s">
         <v>508</v>
       </c>
-      <c r="I64" s="140" t="s">
+      <c r="I64" s="139" t="s">
         <v>509</v>
       </c>
-      <c r="J64" s="141" t="s">
+      <c r="J64" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="K64" s="141" t="s">
+      <c r="K64" s="140" t="s">
         <v>511</v>
       </c>
-      <c r="L64" s="141" t="s">
+      <c r="L64" s="140" t="s">
         <v>512</v>
       </c>
     </row>
@@ -9063,36 +9080,36 @@
       <c r="A65" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="B65" s="142">
+      <c r="B65" s="141">
         <v>5</v>
       </c>
-      <c r="C65" s="142">
+      <c r="C65" s="141">
         <v>7</v>
       </c>
-      <c r="D65" s="142">
+      <c r="D65" s="141">
         <v>2</v>
       </c>
-      <c r="E65" s="142">
+      <c r="E65" s="141">
         <v>1</v>
       </c>
-      <c r="F65" s="142"/>
-      <c r="G65" s="143">
+      <c r="F65" s="141"/>
+      <c r="G65" s="142">
         <f>carbon*B65+hydrogen*C65+oxygen*D65+nitrogen*E65+Sulfur*F65</f>
         <v>113.11458</v>
       </c>
-      <c r="H65" s="130">
+      <c r="H65" s="129">
         <f>($B65/2+$C65/8-$D65/4-3/8*$E65-$F65/4)*22.4/(carbon*$B65+hydrogen*$C65+oxygen*$D65+nitrogen*$E65)*1000</f>
         <v>495.07322575038518</v>
       </c>
-      <c r="I65" s="144">
+      <c r="I65" s="143">
         <f>H65/350</f>
         <v>1.4144949307153862</v>
       </c>
-      <c r="J65" s="144">
+      <c r="J65" s="143">
         <f>carbon*B65/G65</f>
         <v>0.53090857076072773</v>
       </c>
-      <c r="K65" s="143">
+      <c r="K65" s="142">
         <f>nitrogen*E65/G65</f>
         <v>0.12382753841281999</v>
       </c>
@@ -9105,34 +9122,34 @@
       <c r="A66" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B66" s="142">
+      <c r="B66" s="141">
         <v>6</v>
       </c>
-      <c r="C66" s="142">
+      <c r="C66" s="141">
         <v>10</v>
       </c>
-      <c r="D66" s="142">
+      <c r="D66" s="141">
         <v>5</v>
       </c>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="143">
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="142">
         <f>carbon*B66+hydrogen*C66+oxygen*D66+nitrogen*E66+Sulfur*F66</f>
         <v>162.14060000000001</v>
       </c>
-      <c r="H66" s="130">
+      <c r="H66" s="129">
         <f>($B66/2+$C66/8-$D66/4-3/8*$E66-$F66/4)*22.4/(carbon*$B66+hydrogen*$C66+oxygen*$D66+nitrogen*$E66)*1000</f>
         <v>414.45510871428866</v>
       </c>
-      <c r="I66" s="144">
+      <c r="I66" s="143">
         <f>H66/350</f>
         <v>1.1841574534693962</v>
       </c>
-      <c r="J66" s="144">
+      <c r="J66" s="143">
         <f>carbon*B66/G66</f>
         <v>0.44445499769952745</v>
       </c>
-      <c r="K66" s="143">
+      <c r="K66" s="142">
         <f>nitrogen*E66/G66</f>
         <v>0</v>
       </c>
@@ -9145,34 +9162,34 @@
       <c r="A67" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="B67" s="145">
+      <c r="B67" s="144">
         <v>57</v>
       </c>
-      <c r="C67" s="142">
+      <c r="C67" s="141">
         <v>106</v>
       </c>
-      <c r="D67" s="142">
+      <c r="D67" s="141">
         <v>6</v>
       </c>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="143">
+      <c r="E67" s="141"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="142">
         <f>carbon*B67+hydrogen*C67+oxygen*D67+nitrogen*E67+Sulfur*F67</f>
         <v>887.44794000000002</v>
       </c>
-      <c r="H67" s="130">
+      <c r="H67" s="129">
         <f>($B67/2+$C67/8-$D67/4-3/8*$E67-$F67/4)*22.4/(carbon*$B67+hydrogen*$C67+oxygen*$D67+nitrogen*$E67)*1000</f>
         <v>1015.9469185313561</v>
       </c>
-      <c r="I67" s="144">
+      <c r="I67" s="143">
         <f>H67/350</f>
         <v>2.9027054815181605</v>
       </c>
-      <c r="J67" s="144">
+      <c r="J67" s="143">
         <f>carbon*B67/G67</f>
         <v>0.77143668844394409</v>
       </c>
-      <c r="K67" s="143">
+      <c r="K67" s="142">
         <f>nitrogen*E67/G67</f>
         <v>0</v>
       </c>
@@ -9182,71 +9199,71 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="145" t="s">
         <v>513</v>
       </c>
-      <c r="B68" s="142">
+      <c r="B68" s="141">
         <v>40</v>
       </c>
-      <c r="C68" s="142">
+      <c r="C68" s="141">
         <v>46</v>
       </c>
-      <c r="D68" s="142">
+      <c r="D68" s="141">
         <v>16</v>
       </c>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="143">
+      <c r="E68" s="141"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="142">
         <f t="shared" ref="G68" si="1">carbon*B68+hydrogen*C68+oxygen*D68+nitrogen*E68+Sulfur*F68</f>
         <v>782.78363999999999</v>
       </c>
-      <c r="H68" s="130">
+      <c r="H68" s="129">
         <f t="shared" ref="H68:H69" si="2">($B68/2+$C68/8-$D68/4-3/8*$E68-$F68/4)*22.4/(carbon*$B68+hydrogen*$C68+oxygen*$D68+nitrogen*$E68)*1000</f>
         <v>622.39420333312023</v>
       </c>
-      <c r="I68" s="144">
+      <c r="I68" s="143">
         <f>H68/350</f>
         <v>1.7782691523803436</v>
       </c>
-      <c r="J68" s="143"/>
-      <c r="K68" s="143"/>
+      <c r="J68" s="142"/>
+      <c r="K68" s="142"/>
       <c r="L68" s="69">
         <f>350/H68</f>
         <v>0.56234456896551721</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="146" t="s">
+      <c r="A69" s="145" t="s">
         <v>514</v>
       </c>
-      <c r="B69" s="147">
+      <c r="B69" s="146">
         <v>6</v>
       </c>
-      <c r="C69" s="147">
+      <c r="C69" s="146">
         <v>12</v>
       </c>
-      <c r="D69" s="147">
+      <c r="D69" s="146">
         <v>6</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
-      <c r="G69" s="143">
+      <c r="G69" s="142">
         <f>carbon*B69+hydrogen*C69+oxygen*D69+nitrogen*E69+Sulfur*F69</f>
         <v>180.15588</v>
       </c>
-      <c r="H69" s="130">
+      <c r="H69" s="129">
         <f t="shared" si="2"/>
         <v>373.01030640798393</v>
       </c>
-      <c r="I69" s="144">
+      <c r="I69" s="143">
         <f>H69/350</f>
         <v>1.0657437325942398</v>
       </c>
-      <c r="J69" s="143">
+      <c r="J69" s="142">
         <f>carbon*B69/G69</f>
         <v>0.40001025778342625</v>
       </c>
-      <c r="K69" s="143">
+      <c r="K69" s="142">
         <f>nitrogen*E69/G69</f>
         <v>0</v>
       </c>
@@ -9257,607 +9274,607 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="50"/>
-      <c r="B70" s="142"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="141"/>
     </row>
     <row r="72" spans="1:14" ht="16" thickBot="1"/>
     <row r="73" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A73" s="148" t="s">
+      <c r="A73" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B73" s="149" t="s">
+      <c r="B73" s="148" t="s">
         <v>516</v>
       </c>
-      <c r="C73" s="149" t="s">
+      <c r="C73" s="148" t="s">
         <v>517</v>
       </c>
-      <c r="D73" s="149" t="s">
+      <c r="D73" s="148" t="s">
         <v>518</v>
       </c>
-      <c r="E73" s="149" t="s">
+      <c r="E73" s="148" t="s">
         <v>519</v>
       </c>
-      <c r="F73" s="149" t="s">
+      <c r="F73" s="148" t="s">
         <v>520</v>
       </c>
-      <c r="G73" s="149" t="s">
+      <c r="G73" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="H73" s="149" t="s">
+      <c r="H73" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="I73" s="149"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="149" t="s">
+      <c r="I73" s="148"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="L73" s="149" t="s">
+      <c r="L73" s="148" t="s">
         <v>524</v>
       </c>
-      <c r="M73" s="150" t="s">
+      <c r="M73" s="149" t="s">
         <v>525</v>
       </c>
-      <c r="N73" s="150" t="s">
+      <c r="N73" s="149" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" thickBot="1">
-      <c r="A75" s="151" t="s">
+      <c r="A75" s="150" t="s">
         <v>527</v>
       </c>
-      <c r="B75" s="152">
+      <c r="B75" s="151">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C75" s="152">
+      <c r="C75" s="151">
         <v>0.105</v>
       </c>
-      <c r="D75" s="152">
+      <c r="D75" s="151">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E75" s="152">
+      <c r="E75" s="151">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F75" s="152">
+      <c r="F75" s="151">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G75" s="152">
+      <c r="G75" s="151">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H75" s="152">
+      <c r="H75" s="151">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="152">
+      <c r="I75" s="151"/>
+      <c r="J75" s="151"/>
+      <c r="K75" s="151">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L75" s="152">
+      <c r="L75" s="151">
         <v>0.92400000000000004</v>
       </c>
-      <c r="M75" s="153">
+      <c r="M75" s="152">
         <v>0.309</v>
       </c>
-      <c r="N75" s="153">
+      <c r="N75" s="152">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16" thickBot="1">
-      <c r="A76" s="154" t="s">
+      <c r="A76" s="153" t="s">
         <v>528</v>
       </c>
-      <c r="B76" s="155">
+      <c r="B76" s="154">
         <v>0.97899999999999998</v>
       </c>
-      <c r="C76" s="155">
+      <c r="C76" s="154">
         <v>0.90700000000000003</v>
       </c>
-      <c r="D76" s="155">
+      <c r="D76" s="154">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E76" s="155">
+      <c r="E76" s="154">
         <v>0.93300000000000005</v>
       </c>
-      <c r="F76" s="155">
+      <c r="F76" s="154">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G76" s="155">
+      <c r="G76" s="154">
         <v>1</v>
       </c>
-      <c r="H76" s="155">
+      <c r="H76" s="154">
         <v>0.95</v>
       </c>
-      <c r="I76" s="155"/>
-      <c r="J76" s="155"/>
-      <c r="K76" s="155">
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L76" s="155">
+      <c r="L76" s="154">
         <v>0.97799999999999998</v>
       </c>
-      <c r="M76" s="156">
+      <c r="M76" s="155">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N76" s="156">
+      <c r="N76" s="155">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" thickBot="1">
-      <c r="A77" s="157" t="s">
+      <c r="A77" s="156" t="s">
         <v>529</v>
       </c>
-      <c r="B77" s="158">
+      <c r="B77" s="157">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C77" s="155">
+      <c r="C77" s="154">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D77" s="155">
+      <c r="D77" s="154">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E77" s="155">
+      <c r="E77" s="154">
         <v>0.91100000000000003</v>
       </c>
-      <c r="F77" s="155">
+      <c r="F77" s="154">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G77" s="155">
+      <c r="G77" s="154">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H77" s="155">
+      <c r="H77" s="154">
         <v>0.29099999999999998</v>
       </c>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155">
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="154">
         <v>0.45200000000000001</v>
       </c>
-      <c r="L77" s="155">
+      <c r="L77" s="154">
         <v>0.90400000000000003</v>
       </c>
-      <c r="M77" s="156">
+      <c r="M77" s="155">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="N77" s="156">
+      <c r="N77" s="155">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A78" s="159" t="s">
+      <c r="A78" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="B78" s="160">
+      <c r="B78" s="159">
         <v>0.03</v>
       </c>
-      <c r="C78" s="160">
+      <c r="C78" s="159">
         <v>0.09</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <v>0.01</v>
       </c>
-      <c r="E78" s="160">
+      <c r="E78" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <v>0.03</v>
       </c>
-      <c r="G78" s="160">
+      <c r="G78" s="159">
         <v>0</v>
       </c>
-      <c r="H78" s="160">
+      <c r="H78" s="159">
         <v>0.05</v>
       </c>
-      <c r="I78" s="160"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160">
+      <c r="I78" s="159"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159">
         <v>0.11</v>
       </c>
-      <c r="L78" s="160">
+      <c r="L78" s="159">
         <v>0.02</v>
       </c>
-      <c r="M78" s="161">
+      <c r="M78" s="160">
         <v>0.02</v>
       </c>
-      <c r="N78" s="161">
+      <c r="N78" s="160">
         <v>0.16</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A79" s="159" t="s">
+      <c r="A79" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="B79" s="189">
+      <c r="B79" s="188">
         <v>0.11</v>
       </c>
-      <c r="C79" s="160">
+      <c r="C79" s="159">
         <v>0.02</v>
       </c>
-      <c r="D79" s="160">
+      <c r="D79" s="159">
         <v>0.04</v>
       </c>
-      <c r="E79" s="160">
+      <c r="E79" s="159">
         <v>0</v>
       </c>
-      <c r="F79" s="160">
+      <c r="F79" s="159">
         <v>0.19</v>
       </c>
-      <c r="G79" s="160">
+      <c r="G79" s="159">
         <v>0.03</v>
       </c>
-      <c r="H79" s="160">
+      <c r="H79" s="159">
         <v>0.02</v>
       </c>
-      <c r="I79" s="160"/>
-      <c r="J79" s="160"/>
-      <c r="K79" s="160">
+      <c r="I79" s="159"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="159">
         <v>0.02</v>
       </c>
-      <c r="L79" s="160">
+      <c r="L79" s="159">
         <v>0.01</v>
       </c>
-      <c r="M79" s="161">
+      <c r="M79" s="160">
         <v>0.05</v>
       </c>
-      <c r="N79" s="161">
+      <c r="N79" s="160">
         <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17" thickTop="1" thickBot="1">
-      <c r="A80" s="159" t="s">
+      <c r="A80" s="158" t="s">
         <v>532</v>
       </c>
-      <c r="B80" s="189">
+      <c r="B80" s="188">
         <v>0.1</v>
       </c>
-      <c r="C80" s="160">
+      <c r="C80" s="159">
         <v>0.15</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <v>0.17</v>
       </c>
-      <c r="E80" s="160">
+      <c r="E80" s="159">
         <v>0.1</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <v>0.18</v>
       </c>
-      <c r="G80" s="160">
+      <c r="G80" s="159">
         <v>0.02</v>
       </c>
-      <c r="H80" s="160">
+      <c r="H80" s="159">
         <v>0.11</v>
       </c>
-      <c r="I80" s="160"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160">
+      <c r="I80" s="159"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="159">
         <v>0.23</v>
       </c>
-      <c r="L80" s="160">
+      <c r="L80" s="159">
         <v>0.12</v>
       </c>
-      <c r="M80" s="161">
+      <c r="M80" s="160">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N80" s="161">
+      <c r="N80" s="160">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="17" thickTop="1" thickBot="1">
-      <c r="A81" s="162" t="s">
+      <c r="A81" s="161" t="s">
         <v>533</v>
       </c>
-      <c r="B81" s="190">
+      <c r="B81" s="189">
         <v>0.76</v>
       </c>
-      <c r="C81" s="163">
+      <c r="C81" s="162">
         <v>0.74</v>
       </c>
-      <c r="D81" s="163">
+      <c r="D81" s="162">
         <v>0.79</v>
       </c>
-      <c r="E81" s="163">
+      <c r="E81" s="162">
         <v>0.82</v>
       </c>
-      <c r="F81" s="163">
+      <c r="F81" s="162">
         <v>0.61</v>
       </c>
-      <c r="G81" s="163">
+      <c r="G81" s="162">
         <v>0.82</v>
       </c>
-      <c r="H81" s="163">
+      <c r="H81" s="162">
         <v>0.82</v>
       </c>
-      <c r="I81" s="163"/>
-      <c r="J81" s="163"/>
-      <c r="K81" s="163">
+      <c r="I81" s="162"/>
+      <c r="J81" s="162"/>
+      <c r="K81" s="162">
         <v>0.66</v>
       </c>
-      <c r="L81" s="163">
+      <c r="L81" s="162">
         <v>0.85</v>
       </c>
-      <c r="M81" s="164">
+      <c r="M81" s="163">
         <v>0.79</v>
       </c>
-      <c r="N81" s="164">
+      <c r="N81" s="163">
         <v>0.69</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16" thickTop="1">
-      <c r="A82" s="165" t="s">
+      <c r="A82" s="164" t="s">
         <v>534</v>
       </c>
-      <c r="C82" s="166"/>
-      <c r="D82" s="166"/>
-      <c r="E82" s="166"/>
-      <c r="F82" s="166"/>
-      <c r="G82" s="166"/>
-      <c r="H82" s="166"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="166"/>
-      <c r="K82" s="166"/>
-      <c r="L82" s="166"/>
-      <c r="M82" s="166"/>
-      <c r="N82" s="167">
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="166">
         <v>0.54263731383696057</v>
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="168" t="s">
+      <c r="A83" s="167" t="s">
         <v>535</v>
       </c>
-      <c r="B83" s="169">
+      <c r="B83" s="168">
         <f t="shared" ref="B83:H83" si="3">B79*$J67</f>
         <v>8.4858035728833853E-2</v>
       </c>
-      <c r="C83" s="169">
+      <c r="C83" s="168">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="D83" s="169">
+      <c r="D83" s="168">
         <f t="shared" si="3"/>
         <v>3.0857467537757765E-2</v>
       </c>
-      <c r="E83" s="169">
+      <c r="E83" s="168">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="169">
+      <c r="F83" s="168">
         <f t="shared" si="3"/>
         <v>0.14657297080434939</v>
       </c>
-      <c r="G83" s="169">
+      <c r="G83" s="168">
         <f t="shared" si="3"/>
         <v>2.3143100653318323E-2</v>
       </c>
-      <c r="H83" s="169">
+      <c r="H83" s="168">
         <f t="shared" si="3"/>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="I83" s="169"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="169">
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168">
         <f>K79*$J67</f>
         <v>1.5428733768878882E-2</v>
       </c>
-      <c r="L83" s="169">
+      <c r="L83" s="168">
         <f>L79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
-      <c r="M83" s="169">
+      <c r="M83" s="168">
         <f>M79*$J67</f>
         <v>3.8571834422197207E-2</v>
       </c>
-      <c r="N83" s="169">
+      <c r="N83" s="168">
         <f>N79*$J67</f>
         <v>7.7143668844394412E-3</v>
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="168" t="s">
+      <c r="A84" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="B84" s="169">
+      <c r="B84" s="168">
         <f t="shared" ref="B84:H84" si="4">B80*$J65</f>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="C84" s="169">
+      <c r="C84" s="168">
         <f t="shared" si="4"/>
         <v>7.9636285614109154E-2</v>
       </c>
-      <c r="D84" s="169">
+      <c r="D84" s="168">
         <f t="shared" si="4"/>
         <v>9.025445702932372E-2</v>
       </c>
-      <c r="E84" s="169">
+      <c r="E84" s="168">
         <f t="shared" si="4"/>
         <v>5.3090857076072778E-2</v>
       </c>
-      <c r="F84" s="169">
+      <c r="F84" s="168">
         <f t="shared" si="4"/>
         <v>9.556354273693099E-2</v>
       </c>
-      <c r="G84" s="169">
+      <c r="G84" s="168">
         <f t="shared" si="4"/>
         <v>1.0618171415214555E-2</v>
       </c>
-      <c r="H84" s="169">
+      <c r="H84" s="168">
         <f t="shared" si="4"/>
         <v>5.8399942783680048E-2</v>
       </c>
-      <c r="I84" s="169"/>
-      <c r="J84" s="169"/>
-      <c r="K84" s="169">
+      <c r="I84" s="168"/>
+      <c r="J84" s="168"/>
+      <c r="K84" s="168">
         <f>K80*$J65</f>
         <v>0.12210897127496738</v>
       </c>
-      <c r="L84" s="169">
+      <c r="L84" s="168">
         <f>L80*$J65</f>
         <v>6.3709028491287331E-2</v>
       </c>
-      <c r="M84" s="169">
+      <c r="M84" s="168">
         <f>M80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
-      <c r="N84" s="169">
+      <c r="N84" s="168">
         <f>N80*$J65</f>
         <v>7.4327199906501884E-2</v>
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="168" t="s">
+      <c r="A85" s="167" t="s">
         <v>537</v>
       </c>
-      <c r="B85" s="169">
+      <c r="B85" s="168">
         <f t="shared" ref="B85:H85" si="5">$J66*B81</f>
         <v>0.33778579825164085</v>
       </c>
-      <c r="C85" s="169">
+      <c r="C85" s="168">
         <f t="shared" si="5"/>
         <v>0.32889669829765034</v>
       </c>
-      <c r="D85" s="169">
+      <c r="D85" s="168">
         <f t="shared" si="5"/>
         <v>0.35111944818262669</v>
       </c>
-      <c r="E85" s="169">
+      <c r="E85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="F85" s="169">
+      <c r="F85" s="168">
         <f t="shared" si="5"/>
         <v>0.27111754859671172</v>
       </c>
-      <c r="G85" s="169">
+      <c r="G85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="H85" s="169">
+      <c r="H85" s="168">
         <f t="shared" si="5"/>
         <v>0.36445309811361248</v>
       </c>
-      <c r="I85" s="169"/>
-      <c r="J85" s="169"/>
-      <c r="K85" s="169">
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168">
         <f>$J66*K81</f>
         <v>0.29334029848168813</v>
       </c>
-      <c r="L85" s="169">
+      <c r="L85" s="168">
         <f>$J66*L81</f>
         <v>0.37778674804459833</v>
       </c>
-      <c r="M85" s="169">
+      <c r="M85" s="168">
         <f>$J66*M81</f>
         <v>0.35111944818262669</v>
       </c>
-      <c r="N85" s="169">
+      <c r="N85" s="168">
         <f>$J66*N81</f>
         <v>0.30667394841267392</v>
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="168" t="s">
+      <c r="A86" s="167" t="s">
         <v>538</v>
       </c>
-      <c r="B86" s="169">
+      <c r="B86" s="168">
         <f>SUM(B83:B85)</f>
         <v>0.47573469105654748</v>
       </c>
-      <c r="C86" s="169">
+      <c r="C86" s="168">
         <f t="shared" ref="C86:N86" si="6">SUM(C83:C85)</f>
         <v>0.42396171768063839</v>
       </c>
-      <c r="D86" s="169">
+      <c r="D86" s="168">
         <f t="shared" si="6"/>
         <v>0.47223137274970817</v>
       </c>
-      <c r="E86" s="169">
+      <c r="E86" s="168">
         <f t="shared" si="6"/>
         <v>0.41754395518968523</v>
       </c>
-      <c r="F86" s="169">
+      <c r="F86" s="168">
         <f t="shared" si="6"/>
         <v>0.51325406213799207</v>
       </c>
-      <c r="G86" s="169">
+      <c r="G86" s="168">
         <f t="shared" si="6"/>
         <v>0.39821437018214534</v>
       </c>
-      <c r="H86" s="169">
+      <c r="H86" s="168">
         <f t="shared" si="6"/>
         <v>0.43828177466617141</v>
       </c>
-      <c r="I86" s="169"/>
-      <c r="J86" s="169"/>
-      <c r="K86" s="169">
+      <c r="I86" s="168"/>
+      <c r="J86" s="168"/>
+      <c r="K86" s="168">
         <f t="shared" si="6"/>
         <v>0.4308780035255344</v>
       </c>
-      <c r="L86" s="169">
+      <c r="L86" s="168">
         <f t="shared" si="6"/>
         <v>0.44921014342032511</v>
       </c>
-      <c r="M86" s="169">
+      <c r="M86" s="168">
         <f t="shared" si="6"/>
         <v>0.46401848251132577</v>
       </c>
-      <c r="N86" s="169">
+      <c r="N86" s="168">
         <f t="shared" si="6"/>
         <v>0.38871551520361525</v>
       </c>
-      <c r="O86" s="169">
+      <c r="O86" s="168">
         <f>(1-N82)*N86*N76</f>
         <v>0.14862740074814412</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="168" t="s">
+      <c r="A87" s="167" t="s">
         <v>539</v>
       </c>
-      <c r="B87" s="188">
+      <c r="B87" s="187">
         <f>B86*B75</f>
         <v>0.43577297700779749</v>
       </c>
-      <c r="C87" s="169">
+      <c r="C87" s="168">
         <f>C86*C75</f>
         <v>4.4515980356467033E-2</v>
       </c>
-      <c r="D87" s="169">
+      <c r="D87" s="168">
         <f t="shared" ref="D87:N87" si="7">D86*D75</f>
         <v>0.13836379221566447</v>
       </c>
-      <c r="E87" s="169">
+      <c r="E87" s="168">
         <f t="shared" si="7"/>
         <v>3.2150884549605761E-2</v>
       </c>
-      <c r="F87" s="169">
+      <c r="F87" s="168">
         <f t="shared" si="7"/>
         <v>0.23917639295630433</v>
       </c>
-      <c r="G87" s="169">
+      <c r="G87" s="168">
         <f t="shared" si="7"/>
         <v>5.6944654936046779E-2</v>
       </c>
-      <c r="H87" s="169">
+      <c r="H87" s="168">
         <f t="shared" si="7"/>
         <v>0.40628720511554089</v>
       </c>
-      <c r="I87" s="169"/>
-      <c r="J87" s="169"/>
-      <c r="K87" s="169">
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="168">
         <f t="shared" si="7"/>
         <v>1.6373364133970308E-2</v>
       </c>
-      <c r="L87" s="169">
+      <c r="L87" s="168">
         <f t="shared" si="7"/>
         <v>0.41507017252038042</v>
       </c>
-      <c r="M87" s="169">
+      <c r="M87" s="168">
         <f t="shared" si="7"/>
         <v>0.14338171109599965</v>
       </c>
-      <c r="N87" s="169">
+      <c r="N87" s="168">
         <f t="shared" si="7"/>
         <v>3.9648982550768749E-2</v>
       </c>
@@ -9970,7 +9987,7 @@
         <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -11831,7 +11848,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="C9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D9" t="s">
         <v>541</v>
@@ -11839,23 +11856,23 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B12">
         <v>0.04</v>
@@ -11864,7 +11881,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11879,7 +11896,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -11912,10 +11929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11930,31 +11947,31 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G1" t="s">
         <v>809</v>
-      </c>
-      <c r="D1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G1" t="s">
-        <v>810</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O1">
         <v>0.453592</v>
@@ -11962,11 +11979,11 @@
     </row>
     <row r="2" spans="1:15" s="59" customFormat="1">
       <c r="A2" s="59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -11974,11 +11991,11 @@
         <v>141</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N2"/>
       <c r="O2" s="59" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11991,10 +12008,10 @@
         <v>kgCO2e/L diesel</v>
       </c>
       <c r="C3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E3">
         <v>0.45</v>
@@ -12006,42 +12023,42 @@
         <v>0.5</v>
       </c>
       <c r="H3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L3" t="s">
         <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E4" s="69">
         <v>2.7204943424399999</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K4">
         <v>1180.6199999999999</v>
@@ -12060,31 +12077,31 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E5" s="69">
         <f>-N4</f>
         <v>-537.36092603984002</v>
       </c>
       <c r="F5" s="69">
+        <f>-N7</f>
+        <v>-918.79198627000005</v>
+      </c>
+      <c r="G5" s="69">
         <f>-N8</f>
         <v>-537.18234233351995</v>
       </c>
-      <c r="G5" s="69">
-        <f>-N7</f>
-        <v>-918.79198627000005</v>
-      </c>
       <c r="J5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K5">
         <v>1520.2</v>
@@ -12102,16 +12119,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C6" t="s">
         <v>910</v>
       </c>
-      <c r="B6" t="s">
-        <v>911</v>
-      </c>
-      <c r="C6" t="s">
-        <v>913</v>
-      </c>
       <c r="D6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E6" s="69">
         <v>0.3</v>
@@ -12123,18 +12140,18 @@
         <v>0.6</v>
       </c>
       <c r="H6" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E7">
         <v>6.8</v>
@@ -12146,13 +12163,13 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K7">
         <v>2014.87</v>
@@ -12170,13 +12187,13 @@
     </row>
     <row r="8" spans="1:15" ht="30">
       <c r="A8" t="s">
-        <v>805</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>883</v>
+        <v>804</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>940</v>
       </c>
       <c r="D8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E8">
         <v>0.4</v>
@@ -12188,13 +12205,13 @@
         <v>0.6</v>
       </c>
       <c r="H8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="J8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K8">
         <v>1181.7</v>
@@ -12212,13 +12229,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E9">
         <v>1.8</v>
@@ -12232,13 +12249,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E10">
         <v>0.96</v>
@@ -12252,13 +12269,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F11">
         <v>-550</v>
@@ -12272,7 +12289,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -12285,10 +12302,10 @@
         <v>L/t</v>
       </c>
       <c r="C13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E13" s="69">
         <v>5.8295314000000005</v>
@@ -12318,10 +12335,10 @@
         <v>%</v>
       </c>
       <c r="C14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -12351,10 +12368,10 @@
         <v>%</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E15" s="44">
         <f>'Landfill '!E9</f>
@@ -12385,10 +12402,10 @@
         <v>btu/kwh</v>
       </c>
       <c r="C16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E16">
         <f>'Landfill '!E22</f>
@@ -12411,16 +12428,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E17">
         <v>0.85</v>
@@ -12432,24 +12449,24 @@
         <v>0.9</v>
       </c>
       <c r="H17" t="s">
+        <v>805</v>
+      </c>
+      <c r="I17" t="s">
         <v>806</v>
-      </c>
-      <c r="I17" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E18">
         <v>0.9</v>
@@ -12461,7 +12478,7 @@
         <v>0.95</v>
       </c>
       <c r="H18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1">
@@ -12473,10 +12490,10 @@
         <v>fraction</v>
       </c>
       <c r="C19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -12488,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I19" s="6" t="str">
         <f>'Landfill '!K15</f>
@@ -12500,13 +12517,13 @@
         <v>473</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C20" t="s">
         <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E20" s="6">
         <v>0.14399999999999999</v>
@@ -12518,15 +12535,15 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="59" customFormat="1">
       <c r="A21" s="59" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -12539,10 +12556,10 @@
         <v>%</v>
       </c>
       <c r="C22" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E22">
         <f>AD!E12</f>
@@ -12559,7 +12576,7 @@
         <v>Ebner et al, 2014</v>
       </c>
       <c r="I22" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12572,10 +12589,10 @@
         <v>% methane utilized</v>
       </c>
       <c r="C23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E23">
         <f>AD!E14</f>
@@ -12606,10 +12623,10 @@
         <v>% methane utilized</v>
       </c>
       <c r="C24" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E24">
         <f>AD!E16</f>
@@ -12635,7 +12652,7 @@
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E25" s="12">
         <f>AD!C17</f>
@@ -12648,7 +12665,7 @@
         <v>0.378882</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -12661,10 +12678,10 @@
         <v>MWh/t</v>
       </c>
       <c r="C26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E26">
         <f>AD!E18</f>
@@ -12697,10 +12714,10 @@
         <v>% KWh generated</v>
       </c>
       <c r="C27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E27">
         <f>AD!E20</f>
@@ -12731,10 +12748,10 @@
         <v>%</v>
       </c>
       <c r="C28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E28">
         <f>AD!E26</f>
@@ -12765,10 +12782,10 @@
         <v>m3CH4/kgVS</v>
       </c>
       <c r="C29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E29">
         <f>AD!E28</f>
@@ -12795,10 +12812,10 @@
         <v>kgCO2e/t</v>
       </c>
       <c r="C30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E30">
         <f>AD!E33</f>
@@ -12831,10 +12848,10 @@
         <v>KgNvol/kg N</v>
       </c>
       <c r="C31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D31" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E31">
         <f>AD!E34</f>
@@ -12865,10 +12882,10 @@
         <v>Kg N2O-N/kg N</v>
       </c>
       <c r="C32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E32">
         <f>AD!E35</f>
@@ -12889,440 +12906,450 @@
         <v>assumes that N is is the same as N out adjusted for D losses</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="59" customFormat="1">
-      <c r="A33" s="59" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="59" customFormat="1">
+      <c r="A34" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="59" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="D34" s="59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>907</v>
+      </c>
+      <c r="B35" t="s">
+        <v>898</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="B34" t="s">
-        <v>901</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="D34" t="s">
-        <v>643</v>
-      </c>
-      <c r="E34" s="69">
+      <c r="D35" t="s">
+        <v>642</v>
+      </c>
+      <c r="E35" s="69">
         <v>0.3</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F35" s="69">
         <v>0.3</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G35" s="69">
         <v>0.6</v>
       </c>
-      <c r="H34" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="str">
+      <c r="H35" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="str">
         <f>'Land application'!A10</f>
         <v>Xport to field</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
-        <v>835</v>
-      </c>
-      <c r="D35" t="s">
-        <v>643</v>
-      </c>
-      <c r="E35">
+      <c r="C36" t="s">
+        <v>834</v>
+      </c>
+      <c r="D36" t="s">
+        <v>642</v>
+      </c>
+      <c r="E36">
         <f>'Land application'!E9</f>
         <v>20</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>10</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
-        <v>870</v>
-      </c>
-      <c r="I35" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="str">
+      <c r="H36" t="s">
+        <v>868</v>
+      </c>
+      <c r="I36" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="str">
         <f>'Land application'!A13</f>
         <v>Direct N2O emission factor</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B37" t="str">
         <f>'Land application'!B13</f>
         <v>Kg N2O-N/kg N</v>
       </c>
-      <c r="C36" t="s">
-        <v>836</v>
-      </c>
-      <c r="D36" t="s">
-        <v>643</v>
-      </c>
-      <c r="E36">
+      <c r="C37" t="s">
+        <v>835</v>
+      </c>
+      <c r="D37" t="s">
+        <v>642</v>
+      </c>
+      <c r="E37">
         <f>'Land application'!E13</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>0.05</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H37" t="str">
         <f>'Land application'!H13</f>
         <v>IPCC EF1=0.0125</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>888</v>
-      </c>
-      <c r="B37" t="str">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>885</v>
+      </c>
+      <c r="B38" t="str">
         <f>'Land application'!B16</f>
         <v>KgNvol/kg N</v>
       </c>
-      <c r="C37" t="s">
-        <v>838</v>
-      </c>
-      <c r="D37" t="s">
-        <v>643</v>
-      </c>
-      <c r="E37">
+      <c r="C38" t="s">
+        <v>837</v>
+      </c>
+      <c r="D38" t="s">
+        <v>642</v>
+      </c>
+      <c r="E38">
         <f>'Land application'!E16</f>
         <v>0.2</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>0.05</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>0.5</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H38" t="str">
         <f>'Land application'!H16</f>
         <v>IPCC, FracGASM=0.20</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="str">
+    <row r="39" spans="1:9">
+      <c r="A39" t="str">
         <f>'Land application'!A20</f>
         <v>Carbon storage factor</v>
       </c>
-      <c r="B38">
-        <f>'Land application'!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="D38" t="s">
-        <v>643</v>
-      </c>
-      <c r="E38">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D39" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39">
         <v>0.2</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.15</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>0.48</v>
       </c>
-      <c r="H38" t="s">
-        <v>870</v>
-      </c>
-      <c r="I38" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="59" customFormat="1">
-      <c r="A39" s="59" t="s">
+      <c r="H39" t="s">
+        <v>868</v>
+      </c>
+      <c r="I39" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="59" customFormat="1">
+      <c r="A40" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="59" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>786</v>
-      </c>
-      <c r="B40" t="str">
+      <c r="D40" s="59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>785</v>
+      </c>
+      <c r="B41" t="str">
         <f>compost!B13</f>
         <v>L/t</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="D40" t="s">
-        <v>643</v>
-      </c>
-      <c r="E40">
+      <c r="C41" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D41" t="s">
+        <v>642</v>
+      </c>
+      <c r="E41">
         <v>3</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>0.4</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>798</v>
-      </c>
-      <c r="B41" t="s">
-        <v>799</v>
-      </c>
-      <c r="C41" t="s">
-        <v>637</v>
-      </c>
-      <c r="D41" t="s">
-        <v>846</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0.03</v>
-      </c>
-      <c r="G41">
-        <v>65</v>
       </c>
       <c r="H41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13" customHeight="1">
-      <c r="A42" t="str">
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>797</v>
+      </c>
+      <c r="B42" t="s">
+        <v>798</v>
+      </c>
+      <c r="C42" t="s">
+        <v>636</v>
+      </c>
+      <c r="D42" t="s">
+        <v>844</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.03</v>
+      </c>
+      <c r="G42">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13" customHeight="1">
+      <c r="A43" t="str">
         <f>compost!A18</f>
         <v>carbon degraded</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B43" t="str">
         <f>compost!B18</f>
         <v>%/initial C</v>
       </c>
-      <c r="C42" t="s">
-        <v>840</v>
-      </c>
-      <c r="D42" t="s">
-        <v>643</v>
-      </c>
-      <c r="E42">
+      <c r="C43" t="s">
+        <v>839</v>
+      </c>
+      <c r="D43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.4</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>0.83</v>
       </c>
-      <c r="H42" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>874</v>
-      </c>
-      <c r="B43" t="s">
-        <v>790</v>
-      </c>
-      <c r="C43" t="s">
-        <v>841</v>
-      </c>
-      <c r="D43" t="s">
-        <v>643</v>
-      </c>
-      <c r="E43">
-        <v>0.02</v>
-      </c>
-      <c r="F43">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G43">
-        <v>3.5999999999999997E-2</v>
-      </c>
       <c r="H43" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B44" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C44" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>873</v>
+      </c>
+      <c r="B45" t="s">
+        <v>790</v>
+      </c>
+      <c r="C45" t="s">
+        <v>841</v>
+      </c>
+      <c r="D45" t="s">
+        <v>642</v>
+      </c>
+      <c r="E45">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>1E-3</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H44" t="s">
-        <v>886</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="H45" t="s">
+        <v>883</v>
+      </c>
+      <c r="I45" t="str">
         <f>compost!H20</f>
         <v xml:space="preserve">Boldrin, 2009 </v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>793</v>
-      </c>
-      <c r="B45" t="s">
-        <v>794</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D45" t="s">
-        <v>643</v>
-      </c>
-      <c r="E45">
-        <v>0.2</v>
-      </c>
-      <c r="F45">
-        <v>0.15</v>
-      </c>
-      <c r="G45">
-        <v>0.27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>795</v>
-      </c>
-    </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>796</v>
-      </c>
-      <c r="B46" t="str">
+        <v>792</v>
+      </c>
+      <c r="B46" t="s">
+        <v>793</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D46" t="s">
+        <v>642</v>
+      </c>
+      <c r="E46">
+        <v>0.2</v>
+      </c>
+      <c r="F46">
+        <v>0.15</v>
+      </c>
+      <c r="G46">
+        <v>0.27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>795</v>
+      </c>
+      <c r="B47" t="str">
         <f>compost!B35</f>
         <v>%compost/fw</v>
       </c>
-      <c r="C46" t="s">
-        <v>843</v>
-      </c>
-      <c r="D46" t="s">
-        <v>643</v>
-      </c>
-      <c r="E46">
+      <c r="C47" t="s">
+        <v>842</v>
+      </c>
+      <c r="D47" t="s">
+        <v>642</v>
+      </c>
+      <c r="E47">
         <v>0.4</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>797</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="D47" t="s">
-        <v>643</v>
-      </c>
-      <c r="E47">
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B48" t="s">
-        <v>801</v>
-      </c>
-      <c r="C48" t="s">
-        <v>845</v>
+        <v>12</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>843</v>
       </c>
       <c r="D48" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E48">
-        <v>0.38</v>
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>0.26</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>0.51</v>
-      </c>
-      <c r="H48" t="s">
-        <v>541</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>702</v>
+        <v>799</v>
       </c>
       <c r="B49" t="s">
-        <v>890</v>
+        <v>800</v>
       </c>
       <c r="C49" t="s">
-        <v>894</v>
+        <v>938</v>
       </c>
       <c r="D49" t="s">
-        <v>765</v>
+        <v>642</v>
       </c>
       <c r="E49">
-        <v>1.4999999999999999E-2</v>
+        <v>0.38</v>
+      </c>
+      <c r="F49">
+        <v>0.26</v>
+      </c>
+      <c r="G49">
+        <v>0.51</v>
       </c>
       <c r="H49" t="s">
-        <v>788</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>701</v>
+      </c>
+      <c r="B50" t="s">
         <v>887</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>891</v>
       </c>
-      <c r="C50" t="s">
-        <v>889</v>
-      </c>
       <c r="D50" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E50">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>884</v>
+      </c>
+      <c r="B51" t="s">
+        <v>888</v>
+      </c>
+      <c r="C51" t="s">
+        <v>886</v>
+      </c>
+      <c r="D51" t="s">
+        <v>764</v>
+      </c>
+      <c r="E51">
         <v>1.6E-2</v>
       </c>
-      <c r="H50" t="s">
-        <v>788</v>
+      <c r="H51" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -13348,8 +13375,8 @@
   <cols>
     <col min="1" max="1" width="27.83203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="120" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="119" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="119" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="27" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="27" customWidth="1"/>
@@ -13369,26 +13396,26 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="208" t="s">
+      <c r="D1" s="207" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>2</v>
@@ -13399,7 +13426,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13407,87 +13434,87 @@
       <c r="A2" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="210">
+      <c r="C2" s="209">
         <f>C4+C5</f>
         <v>18.482496322776335</v>
       </c>
-      <c r="D2" s="211"/>
+      <c r="D2" s="210"/>
       <c r="G2" s="54"/>
-      <c r="K2" s="269" t="s">
-        <v>869</v>
+      <c r="K2" s="268" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="47" customFormat="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="212">
+      <c r="C3" s="211">
         <f>E3*G3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="226">
+      <c r="D3" s="212"/>
+      <c r="E3" s="225">
         <f>GlobalFactors!E13</f>
         <v>5.8295314000000005</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="106" t="s">
+      <c r="F3" s="118"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="I3" s="268">
+      <c r="I3" s="267">
         <v>42010</v>
       </c>
-      <c r="J3" s="267" t="s">
-        <v>766</v>
-      </c>
-      <c r="K3" s="106" t="s">
+      <c r="J3" s="266" t="s">
+        <v>765</v>
+      </c>
+      <c r="K3" s="105" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="111" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" s="214">
+      <c r="B4" s="105" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="213">
         <f>E3*G4</f>
         <v>15.859207192776333</v>
       </c>
-      <c r="G4" s="195">
+      <c r="G4" s="194">
         <f>GlobalFactors!E4</f>
         <v>2.7204943424399999</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="K4" s="106"/>
-      <c r="M4" s="112"/>
-      <c r="Q4" s="120"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="K4" s="105"/>
+      <c r="M4" s="111"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="214">
+      <c r="C5" s="213">
         <f>G5*E3</f>
         <v>2.6232891300000003</v>
       </c>
-      <c r="G5" s="196">
+      <c r="G5" s="195">
         <f>GlobalFactors!E3</f>
         <v>0.45</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="111" t="s">
         <v>470</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="111"/>
       <c r="K5" s="27" t="s">
         <v>471</v>
       </c>
@@ -13497,84 +13524,84 @@
         <v>447</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="211"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="210"/>
     </row>
     <row r="7" spans="1:28" hidden="1">
       <c r="A7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="201">
+      <c r="F7" s="200">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111" t="s">
+        <v>652</v>
+      </c>
+      <c r="K7" s="111" t="s">
         <v>653</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="36">
         <f>GlobalFactors!E14</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="201"/>
-      <c r="H8" s="115" t="s">
+      <c r="F8" s="200"/>
+      <c r="H8" s="114" t="s">
+        <v>654</v>
+      </c>
+      <c r="I8" s="114"/>
+      <c r="K8" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="K8" s="27" t="s">
-        <v>656</v>
-      </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="112" t="s">
-        <v>634</v>
-      </c>
-      <c r="B9" s="207" t="s">
+      <c r="A9" s="111" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="201"/>
-      <c r="H9" s="115" t="s">
+      <c r="F9" s="200"/>
+      <c r="H9" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="115" t="s">
-        <v>657</v>
-      </c>
-      <c r="K9" s="207" t="s">
-        <v>687</v>
+      <c r="I9" s="114" t="s">
+        <v>656</v>
+      </c>
+      <c r="K9" s="206" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="112" t="s">
-        <v>633</v>
-      </c>
-      <c r="B10" s="207" t="s">
+      <c r="A10" s="111" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" s="206" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="36">
         <v>0.9</v>
       </c>
-      <c r="F10" s="201"/>
-      <c r="H10" s="112" t="s">
+      <c r="F10" s="200"/>
+      <c r="H10" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="112" t="s">
-        <v>659</v>
-      </c>
-      <c r="K10" s="194" t="s">
+      <c r="I10" s="111" t="s">
         <v>658</v>
+      </c>
+      <c r="K10" s="193" t="s">
+        <v>657</v>
       </c>
       <c r="Y10" s="38" t="e">
         <f>#REF!*44/12</f>
@@ -13591,7 +13618,7 @@
       <c r="A11" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="202">
+      <c r="F11" s="201">
         <f>Parameters!E27</f>
         <v>334.11111111111109</v>
       </c>
@@ -13600,7 +13627,7 @@
       <c r="A12" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="201">
+      <c r="F12" s="200">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
@@ -13612,7 +13639,7 @@
       <c r="B13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="203">
+      <c r="F13" s="202">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
@@ -13627,11 +13654,11 @@
       <c r="B14" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="215">
+      <c r="C14" s="214">
         <f>F13*D16*Parameters!C19*Parameters!C6</f>
         <v>580.55007993612196</v>
       </c>
-      <c r="D14" s="216"/>
+      <c r="D14" s="215"/>
       <c r="H14" s="49" t="s">
         <v>120</v>
       </c>
@@ -13649,10 +13676,10 @@
       <c r="G15" s="36">
         <v>0.7</v>
       </c>
-      <c r="K15" s="270" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q15" s="112"/>
+      <c r="K15" s="269" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q15" s="111"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="27" t="s">
@@ -13661,27 +13688,27 @@
       <c r="B16" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="214">
+      <c r="D16" s="213">
         <f>E87</f>
         <v>0.34304585198864457</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="111"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="111" t="s">
         <v>480</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="214">
+      <c r="C17" s="213">
         <f>D16*F13*G15*Parameters!C19*Parameters!C6</f>
         <v>406.38505595528528</v>
       </c>
-      <c r="Q17" s="112"/>
+      <c r="Q17" s="111"/>
     </row>
     <row r="18" spans="1:25" s="37" customFormat="1">
       <c r="A18" s="42" t="s">
@@ -13690,11 +13717,11 @@
       <c r="B18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="210">
+      <c r="C18" s="209">
         <f>-D23*Parameters!C14/1000</f>
         <v>-64.484627123483364</v>
       </c>
-      <c r="D18" s="211"/>
+      <c r="D18" s="210"/>
       <c r="G18" s="37">
         <f>Parameters!C14</f>
         <v>533.66</v>
@@ -13707,20 +13734,20 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="111" t="s">
         <v>482</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="217">
+      <c r="D19" s="216">
         <f>F87*E10</f>
         <v>0.44377569147881474</v>
       </c>
-      <c r="K19" s="112" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q19" s="112"/>
+      <c r="K19" s="111" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q19" s="111"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="27" t="s">
@@ -13729,58 +13756,58 @@
       <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="217">
+      <c r="D20" s="216">
         <f>F13*D19</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="G20" s="196">
+      <c r="G20" s="195">
         <f>Parameters!C20</f>
         <v>35315</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="K20" s="112" t="s">
+      <c r="I20" s="111"/>
+      <c r="K20" s="111" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="269" t="s">
+        <v>801</v>
+      </c>
+      <c r="B21" s="269" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="216"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="K21" s="269" t="s">
         <v>802</v>
       </c>
-      <c r="B21" s="270" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="217"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="K21" s="270" t="s">
-        <v>803</v>
-      </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="207" t="s">
+      <c r="A22" s="206" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" s="206" t="s">
         <v>680</v>
       </c>
-      <c r="B22" s="207" t="s">
-        <v>681</v>
-      </c>
-      <c r="D22" s="217"/>
-      <c r="E22" s="196">
+      <c r="D22" s="216"/>
+      <c r="E22" s="195">
         <v>11700</v>
       </c>
-      <c r="F22" s="196"/>
-      <c r="G22" s="270" t="s">
+      <c r="F22" s="195"/>
+      <c r="G22" s="269" t="s">
+        <v>770</v>
+      </c>
+      <c r="H22" s="269" t="s">
+        <v>772</v>
+      </c>
+      <c r="I22" s="111"/>
+      <c r="K22" s="269" t="s">
         <v>771</v>
-      </c>
-      <c r="H22" s="270" t="s">
-        <v>773</v>
-      </c>
-      <c r="I22" s="112"/>
-      <c r="K22" s="270" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -13790,141 +13817,141 @@
       <c r="B23" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="214">
+      <c r="D23" s="213">
         <f>D20*G20/E22</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="K23" s="270" t="s">
+      <c r="I23" s="111"/>
+      <c r="K23" s="269" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="127" customFormat="1">
-      <c r="A24" s="127" t="s">
+    <row r="24" spans="1:25" s="126" customFormat="1">
+      <c r="A24" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="218">
+      <c r="C24" s="217">
         <f>D28*-44/12</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D24" s="218">
+      <c r="D24" s="217">
         <f>F25*G24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="127" t="s">
+      <c r="K24" s="126" t="s">
         <v>449</v>
       </c>
-      <c r="X24" s="127" t="e">
+      <c r="X24" s="126" t="e">
         <f>#REF!*1.1</f>
         <v>#REF!</v>
       </c>
-      <c r="Y24" s="127" t="s">
+      <c r="Y24" s="126" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="117" customFormat="1">
-      <c r="A25" s="117" t="s">
+    <row r="25" spans="1:25" s="116" customFormat="1">
+      <c r="A25" s="116" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>448</v>
       </c>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="F25" s="221">
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="F25" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="J25" s="117" t="s">
-        <v>852</v>
-      </c>
-      <c r="K25" s="117" t="s">
+      <c r="J25" s="116" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" s="117" customFormat="1">
-      <c r="A26" s="117" t="s">
-        <v>675</v>
-      </c>
-      <c r="B26" s="117" t="s">
+      <c r="K25" s="116" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="116" customFormat="1">
+      <c r="A26" s="116" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="F26" s="206">
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="F26" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="J26" s="117" t="s">
-        <v>852</v>
-      </c>
-      <c r="K26" s="117" t="s">
-        <v>849</v>
+      <c r="J26" s="116" t="s">
+        <v>850</v>
+      </c>
+      <c r="K26" s="116" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1">
       <c r="A27" s="42" t="s">
-        <v>853</v>
-      </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="280"/>
+        <v>851</v>
+      </c>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="279"/>
       <c r="J27" s="42" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="47" customFormat="1">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>540</v>
       </c>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="203" t="s">
         <v>604</v>
       </c>
-      <c r="C28" s="213"/>
-      <c r="D28" s="212">
+      <c r="C28" s="212"/>
+      <c r="D28" s="211">
         <f>F25*(1-F26)*G29</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F28" s="170"/>
-      <c r="G28" s="278"/>
-      <c r="H28" s="277"/>
-      <c r="I28" s="277"/>
-      <c r="K28" s="117" t="s">
-        <v>896</v>
+      <c r="F28" s="169"/>
+      <c r="G28" s="277"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="276"/>
+      <c r="K28" s="116" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="270" t="s">
-        <v>770</v>
-      </c>
-      <c r="B29" s="270" t="s">
-        <v>854</v>
-      </c>
-      <c r="G29" s="196">
+      <c r="A29" s="269" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" s="269" t="s">
+        <v>852</v>
+      </c>
+      <c r="G29" s="195">
         <v>1</v>
       </c>
-      <c r="H29" s="283">
+      <c r="H29" s="282">
         <f>D28/0.3/1000</f>
         <v>7.7241965328734202E-2</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="270" t="s">
-        <v>855</v>
+      <c r="K29" s="269" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="B30" s="205" t="s">
-        <v>636</v>
-      </c>
-      <c r="C30" s="219">
+      <c r="B30" s="204" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" s="218">
         <f>SUM(C14,C18,C24,C2)</f>
         <v>449.58178727380732</v>
       </c>
@@ -13933,12 +13960,12 @@
       <c r="A31" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="K31" s="112" t="s">
+      <c r="K31" s="111" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="C32" s="120">
+      <c r="C32" s="119">
         <v>3</v>
       </c>
     </row>
@@ -13946,40 +13973,40 @@
       <c r="A34" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="271" t="s">
-        <v>724</v>
+      <c r="H34" s="270" t="s">
+        <v>723</v>
       </c>
       <c r="L34" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="125"/>
+      <c r="M34" s="124"/>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="124" t="s">
+      <c r="P34" s="123" t="s">
         <v>479</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
-      <c r="W34" s="112" t="s">
+      <c r="W34" s="111" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="16">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="111" t="s">
         <v>478</v>
       </c>
-      <c r="C35" s="220"/>
-      <c r="D35" s="120" t="s">
+      <c r="C35" s="219"/>
+      <c r="D35" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="126" t="s">
+      <c r="K35" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="L35" s="126"/>
+      <c r="L35" s="125"/>
       <c r="M35" s="37"/>
-      <c r="N35" s="124" t="s">
+      <c r="N35" s="123" t="s">
         <v>474</v>
       </c>
       <c r="O35" s="37" t="s">
@@ -13994,19 +14021,19 @@
       <c r="A36" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="111" t="s">
         <v>456</v>
       </c>
-      <c r="C36" s="220" t="s">
+      <c r="C36" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="220" t="s">
+      <c r="D36" s="219" t="s">
         <v>477</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="111" t="s">
         <v>458</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="111" t="s">
         <v>457</v>
       </c>
       <c r="G36" s="37" t="s">
@@ -14043,10 +14070,10 @@
         <f t="shared" ref="B37:B68" si="0">$F$7*EXP(-$F$7*A37)</f>
         <v>0.12468783572052551</v>
       </c>
-      <c r="C37" s="120">
+      <c r="C37" s="119">
         <v>0.1</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="119">
         <v>0</v>
       </c>
       <c r="E37" s="29">
@@ -14099,10 +14126,10 @@
         <f t="shared" si="0"/>
         <v>0.10796566928242193</v>
       </c>
-      <c r="C38" s="120">
+      <c r="C38" s="119">
         <v>0.1</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="119">
         <v>0.5</v>
       </c>
       <c r="E38" s="29">
@@ -14154,10 +14181,10 @@
         <f t="shared" si="0"/>
         <v>9.3486150242661228E-2</v>
       </c>
-      <c r="C39" s="120">
+      <c r="C39" s="119">
         <v>0.1</v>
       </c>
-      <c r="D39" s="120">
+      <c r="D39" s="119">
         <v>0.5</v>
       </c>
       <c r="E39" s="29">
@@ -14209,10 +14236,10 @@
         <f t="shared" si="0"/>
         <v>8.0948512108342419E-2</v>
       </c>
-      <c r="C40" s="120">
+      <c r="C40" s="119">
         <v>0.1</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D40" s="119">
         <v>0.5</v>
       </c>
       <c r="E40" s="29">
@@ -14264,10 +14291,10 @@
         <f t="shared" si="0"/>
         <v>7.009232485823591E-2</v>
       </c>
-      <c r="C41" s="120">
+      <c r="C41" s="119">
         <v>0.1</v>
       </c>
-      <c r="D41" s="120">
+      <c r="D41" s="119">
         <v>0.75</v>
       </c>
       <c r="E41" s="29">
@@ -14319,10 +14346,10 @@
         <f t="shared" si="0"/>
         <v>6.0692085327732133E-2</v>
       </c>
-      <c r="C42" s="120">
+      <c r="C42" s="119">
         <v>0.1</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="119">
         <v>0.75</v>
       </c>
       <c r="E42" s="29">
@@ -14374,10 +14401,10 @@
         <f t="shared" si="0"/>
         <v>5.2552533089447094E-2</v>
       </c>
-      <c r="C43" s="120">
+      <c r="C43" s="119">
         <v>0.1</v>
       </c>
-      <c r="D43" s="120">
+      <c r="D43" s="119">
         <v>0.75</v>
       </c>
       <c r="E43" s="29">
@@ -14429,10 +14456,10 @@
         <f t="shared" si="0"/>
         <v>4.5504594531628202E-2</v>
       </c>
-      <c r="C44" s="120">
+      <c r="C44" s="119">
         <v>0.1</v>
       </c>
-      <c r="D44" s="120">
+      <c r="D44" s="119">
         <v>0.75</v>
       </c>
       <c r="E44" s="29">
@@ -14484,10 +14511,10 @@
         <f t="shared" si="0"/>
         <v>3.9401870885338766E-2</v>
       </c>
-      <c r="C45" s="120">
+      <c r="C45" s="119">
         <v>0.1</v>
       </c>
-      <c r="D45" s="120">
+      <c r="D45" s="119">
         <v>0.75</v>
       </c>
       <c r="E45" s="29">
@@ -14539,10 +14566,10 @@
         <f t="shared" si="0"/>
         <v>3.4117597250225534E-2</v>
       </c>
-      <c r="C46" s="120">
+      <c r="C46" s="119">
         <v>0.1</v>
       </c>
-      <c r="D46" s="120">
+      <c r="D46" s="119">
         <v>0.75</v>
       </c>
       <c r="E46" s="29">
@@ -14594,10 +14621,10 @@
         <f t="shared" si="0"/>
         <v>2.9542009452188715E-2</v>
       </c>
-      <c r="C47" s="120">
+      <c r="C47" s="119">
         <v>0.1</v>
       </c>
-      <c r="D47" s="120">
+      <c r="D47" s="119">
         <v>0.75</v>
       </c>
       <c r="E47" s="29">
@@ -14649,10 +14676,10 @@
         <f t="shared" si="0"/>
         <v>2.5580064037699433E-2</v>
       </c>
-      <c r="C48" s="120">
+      <c r="C48" s="119">
         <v>0.1</v>
       </c>
-      <c r="D48" s="120">
+      <c r="D48" s="119">
         <v>0.75</v>
       </c>
       <c r="E48" s="29">
@@ -14704,10 +14731,10 @@
         <f t="shared" si="0"/>
         <v>2.214946404481382E-2</v>
       </c>
-      <c r="C49" s="120">
+      <c r="C49" s="119">
         <v>0.1</v>
       </c>
-      <c r="D49" s="120">
+      <c r="D49" s="119">
         <v>0.75</v>
       </c>
       <c r="E49" s="29">
@@ -14759,10 +14786,10 @@
         <f t="shared" si="0"/>
         <v>1.9178949542482164E-2</v>
       </c>
-      <c r="C50" s="120">
+      <c r="C50" s="119">
         <v>0.1</v>
       </c>
-      <c r="D50" s="120">
+      <c r="D50" s="119">
         <v>0.75</v>
       </c>
       <c r="E50" s="29">
@@ -14814,10 +14841,10 @@
         <f t="shared" si="0"/>
         <v>1.6606817429481006E-2</v>
       </c>
-      <c r="C51" s="120">
+      <c r="C51" s="119">
         <v>0.1</v>
       </c>
-      <c r="D51" s="120">
+      <c r="D51" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E51" s="29">
@@ -14869,10 +14896,10 @@
         <f t="shared" si="0"/>
         <v>1.4379639746443663E-2</v>
       </c>
-      <c r="C52" s="120">
+      <c r="C52" s="119">
         <v>0.1</v>
       </c>
-      <c r="D52" s="120">
+      <c r="D52" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E52" s="29">
@@ -14924,10 +14951,10 @@
         <f t="shared" si="0"/>
         <v>1.2451153877950739E-2</v>
       </c>
-      <c r="C53" s="120">
+      <c r="C53" s="119">
         <v>0.1</v>
       </c>
-      <c r="D53" s="120">
+      <c r="D53" s="119">
         <v>0.82499999999999996</v>
       </c>
       <c r="E53" s="29">
@@ -14979,10 +15006,10 @@
         <f t="shared" si="0"/>
         <v>1.0781301592117407E-2</v>
       </c>
-      <c r="C54" s="120">
+      <c r="C54" s="119">
         <v>0.1</v>
       </c>
-      <c r="D54" s="120">
+      <c r="D54" s="119">
         <v>0.9</v>
       </c>
       <c r="E54" s="29">
@@ -15034,10 +15061,10 @@
         <f t="shared" si="0"/>
         <v>9.3353969567456611E-3</v>
       </c>
-      <c r="C55" s="120">
+      <c r="C55" s="119">
         <v>0.1</v>
       </c>
-      <c r="D55" s="120">
+      <c r="D55" s="119">
         <v>0.9</v>
       </c>
       <c r="E55" s="29">
@@ -15089,10 +15116,10 @@
         <f t="shared" si="0"/>
         <v>8.0834058481152552E-3</v>
       </c>
-      <c r="C56" s="120">
+      <c r="C56" s="119">
         <v>0.1</v>
       </c>
-      <c r="D56" s="120">
+      <c r="D56" s="119">
         <v>0.9</v>
       </c>
       <c r="E56" s="29">
@@ -15144,10 +15171,10 @@
         <f t="shared" si="0"/>
         <v>6.9993220864731295E-3</v>
       </c>
-      <c r="C57" s="120">
+      <c r="C57" s="119">
         <v>0.1</v>
       </c>
-      <c r="D57" s="120">
+      <c r="D57" s="119">
         <v>0.9</v>
       </c>
       <c r="E57" s="29">
@@ -15199,10 +15226,10 @@
         <f t="shared" si="0"/>
         <v>6.0606272393972736E-3</v>
       </c>
-      <c r="C58" s="120">
+      <c r="C58" s="119">
         <v>0.1</v>
       </c>
-      <c r="D58" s="120">
+      <c r="D58" s="119">
         <v>0.9</v>
       </c>
       <c r="E58" s="29">
@@ -15254,10 +15281,10 @@
         <f t="shared" si="0"/>
         <v>5.2478228721479815E-3</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>0.1</v>
       </c>
-      <c r="D59" s="120">
+      <c r="D59" s="119">
         <v>0.9</v>
       </c>
       <c r="E59" s="29">
@@ -15309,10 +15336,10 @@
         <f t="shared" si="0"/>
         <v>4.5440255289778061E-3</v>
       </c>
-      <c r="C60" s="120">
+      <c r="C60" s="119">
         <v>0.1</v>
       </c>
-      <c r="D60" s="120">
+      <c r="D60" s="119">
         <v>0.9</v>
       </c>
       <c r="E60" s="29">
@@ -15364,10 +15391,10 @@
         <f t="shared" si="0"/>
         <v>3.9346160324101294E-3</v>
       </c>
-      <c r="C61" s="120">
+      <c r="C61" s="119">
         <v>0.1</v>
       </c>
-      <c r="D61" s="120">
+      <c r="D61" s="119">
         <v>0.9</v>
       </c>
       <c r="E61" s="29">
@@ -15419,10 +15446,10 @@
         <f t="shared" si="0"/>
         <v>3.406935815781251E-3</v>
       </c>
-      <c r="C62" s="120">
+      <c r="C62" s="119">
         <v>0.1</v>
       </c>
-      <c r="D62" s="120">
+      <c r="D62" s="119">
         <v>0.9</v>
       </c>
       <c r="E62" s="29">
@@ -15474,10 +15501,10 @@
         <f t="shared" si="0"/>
         <v>2.9500239813090774E-3</v>
       </c>
-      <c r="C63" s="120">
+      <c r="C63" s="119">
         <v>0.1</v>
       </c>
-      <c r="D63" s="120">
+      <c r="D63" s="119">
         <v>0.9</v>
       </c>
       <c r="E63" s="29">
@@ -15529,10 +15556,10 @@
         <f t="shared" si="0"/>
         <v>2.5543896218963671E-3</v>
       </c>
-      <c r="C64" s="120">
+      <c r="C64" s="119">
         <v>0.1</v>
       </c>
-      <c r="D64" s="120">
+      <c r="D64" s="119">
         <v>0.9</v>
       </c>
       <c r="E64" s="29">
@@ -15584,10 +15611,10 @@
         <f t="shared" si="0"/>
         <v>2.2118146773696511E-3</v>
       </c>
-      <c r="C65" s="120">
+      <c r="C65" s="119">
         <v>0.1</v>
       </c>
-      <c r="D65" s="120">
+      <c r="D65" s="119">
         <v>0.9</v>
       </c>
       <c r="E65" s="29">
@@ -15639,10 +15666,10 @@
         <f t="shared" si="0"/>
         <v>1.9151832301119041E-3</v>
       </c>
-      <c r="C66" s="120">
+      <c r="C66" s="119">
         <v>0.1</v>
       </c>
-      <c r="D66" s="120">
+      <c r="D66" s="119">
         <v>0.9</v>
       </c>
       <c r="E66" s="29">
@@ -15694,10 +15721,10 @@
         <f t="shared" si="0"/>
         <v>1.6583336942423506E-3</v>
       </c>
-      <c r="C67" s="120">
+      <c r="C67" s="119">
         <v>0.1</v>
       </c>
-      <c r="D67" s="120">
+      <c r="D67" s="119">
         <v>0.9</v>
       </c>
       <c r="E67" s="29">
@@ -15749,10 +15776,10 @@
         <f t="shared" si="0"/>
         <v>1.4359308280382109E-3</v>
       </c>
-      <c r="C68" s="120">
+      <c r="C68" s="119">
         <v>0.1</v>
       </c>
-      <c r="D68" s="120">
+      <c r="D68" s="119">
         <v>0.9</v>
       </c>
       <c r="E68" s="29">
@@ -15804,10 +15831,10 @@
         <f t="shared" ref="B69:B86" si="8">$F$7*EXP(-$F$7*A69)</f>
         <v>1.243354911058796E-3</v>
       </c>
-      <c r="C69" s="120">
+      <c r="C69" s="119">
         <v>0.1</v>
       </c>
-      <c r="D69" s="120">
+      <c r="D69" s="119">
         <v>0.9</v>
       </c>
       <c r="E69" s="29">
@@ -15859,10 +15886,10 @@
         <f t="shared" si="8"/>
         <v>1.0766057839750539E-3</v>
       </c>
-      <c r="C70" s="120">
+      <c r="C70" s="119">
         <v>0.1</v>
       </c>
-      <c r="D70" s="120">
+      <c r="D70" s="119">
         <v>0.9</v>
       </c>
       <c r="E70" s="29">
@@ -15914,10 +15941,10 @@
         <f t="shared" si="8"/>
         <v>9.3221975783367426E-4</v>
       </c>
-      <c r="C71" s="120">
+      <c r="C71" s="119">
         <v>0.1</v>
       </c>
-      <c r="D71" s="120">
+      <c r="D71" s="119">
         <v>0.9</v>
       </c>
       <c r="E71" s="29">
@@ -15969,10 +15996,10 @@
         <f t="shared" si="8"/>
         <v>8.0719766680689817E-4</v>
       </c>
-      <c r="C72" s="120">
+      <c r="C72" s="119">
         <v>0.1</v>
       </c>
-      <c r="D72" s="120">
+      <c r="D72" s="119">
         <v>0.9</v>
       </c>
       <c r="E72" s="29">
@@ -16024,10 +16051,10 @@
         <f t="shared" si="8"/>
         <v>6.9894256995006948E-4</v>
       </c>
-      <c r="C73" s="120">
+      <c r="C73" s="119">
         <v>0.1</v>
       </c>
-      <c r="D73" s="120">
+      <c r="D73" s="119">
         <v>0.9</v>
       </c>
       <c r="E73" s="29">
@@ -16079,10 +16106,10 @@
         <f t="shared" si="8"/>
         <v>6.0520580791677909E-4</v>
       </c>
-      <c r="C74" s="120">
+      <c r="C74" s="119">
         <v>0.1</v>
       </c>
-      <c r="D74" s="120">
+      <c r="D74" s="119">
         <v>0.9</v>
       </c>
       <c r="E74" s="29">
@@ -16134,10 +16161,10 @@
         <f t="shared" si="8"/>
         <v>5.240402941294115E-4</v>
       </c>
-      <c r="C75" s="120">
+      <c r="C75" s="119">
         <v>0.1</v>
       </c>
-      <c r="D75" s="120">
+      <c r="D75" s="119">
         <v>0.9</v>
       </c>
       <c r="E75" s="29">
@@ -16189,10 +16216,10 @@
         <f t="shared" si="8"/>
         <v>4.5376007017599955E-4</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>0.1</v>
       </c>
-      <c r="D76" s="120">
+      <c r="D76" s="119">
         <v>0.9</v>
       </c>
       <c r="E76" s="29">
@@ -16244,10 +16271,10 @@
         <f t="shared" si="8"/>
         <v>3.9290528532388299E-4</v>
       </c>
-      <c r="C77" s="120">
+      <c r="C77" s="119">
         <v>0.1</v>
       </c>
-      <c r="D77" s="120">
+      <c r="D77" s="119">
         <v>0.9</v>
       </c>
       <c r="E77" s="29">
@@ -16299,10 +16326,10 @@
         <f t="shared" si="8"/>
         <v>3.402118727096567E-4</v>
       </c>
-      <c r="C78" s="120">
+      <c r="C78" s="119">
         <v>0.1</v>
       </c>
-      <c r="D78" s="120">
+      <c r="D78" s="119">
         <v>0.9</v>
       </c>
       <c r="E78" s="29">
@@ -16354,10 +16381,10 @@
         <f t="shared" si="8"/>
         <v>2.9458529232356952E-4</v>
       </c>
-      <c r="C79" s="120">
+      <c r="C79" s="119">
         <v>0.1</v>
       </c>
-      <c r="D79" s="120">
+      <c r="D79" s="119">
         <v>0.9</v>
       </c>
       <c r="E79" s="29">
@@ -16409,10 +16436,10 @@
         <f t="shared" si="8"/>
         <v>2.5507779538141821E-4</v>
       </c>
-      <c r="C80" s="120">
+      <c r="C80" s="119">
         <v>0.1</v>
       </c>
-      <c r="D80" s="120">
+      <c r="D80" s="119">
         <v>0.9</v>
       </c>
       <c r="E80" s="29">
@@ -16464,10 +16491,10 @@
         <f t="shared" si="8"/>
         <v>2.2086873782272285E-4</v>
       </c>
-      <c r="C81" s="120">
+      <c r="C81" s="119">
         <v>0.1</v>
       </c>
-      <c r="D81" s="120">
+      <c r="D81" s="119">
         <v>0.9</v>
       </c>
       <c r="E81" s="29">
@@ -16519,10 +16546,10 @@
         <f t="shared" si="8"/>
         <v>1.9124753400999643E-4</v>
       </c>
-      <c r="C82" s="120">
+      <c r="C82" s="119">
         <v>0.1</v>
       </c>
-      <c r="D82" s="120">
+      <c r="D82" s="119">
         <v>0.9</v>
       </c>
       <c r="E82" s="29">
@@ -16574,10 +16601,10 @@
         <f t="shared" si="8"/>
         <v>1.6559889654579202E-4</v>
       </c>
-      <c r="C83" s="120">
+      <c r="C83" s="119">
         <v>0.1</v>
       </c>
-      <c r="D83" s="120">
+      <c r="D83" s="119">
         <v>0.9</v>
       </c>
       <c r="E83" s="29">
@@ -16629,10 +16656,10 @@
         <f t="shared" si="8"/>
         <v>1.4339005561112524E-4</v>
       </c>
-      <c r="C84" s="120">
+      <c r="C84" s="119">
         <v>0.1</v>
       </c>
-      <c r="D84" s="120">
+      <c r="D84" s="119">
         <v>0.9</v>
       </c>
       <c r="E84" s="29">
@@ -16684,10 +16711,10 @@
         <f t="shared" si="8"/>
         <v>1.2415969234720137E-4</v>
       </c>
-      <c r="C85" s="120">
+      <c r="C85" s="119">
         <v>0.1</v>
       </c>
-      <c r="D85" s="120">
+      <c r="D85" s="119">
         <v>0.9</v>
       </c>
       <c r="E85" s="29">
@@ -16739,10 +16766,10 @@
         <f t="shared" si="8"/>
         <v>1.075083564062419E-4</v>
       </c>
-      <c r="C86" s="120">
+      <c r="C86" s="119">
         <v>0.1</v>
       </c>
-      <c r="D86" s="120">
+      <c r="D86" s="119">
         <v>0.9</v>
       </c>
       <c r="E86" s="29">
@@ -16783,18 +16810,18 @@
         <f>SUM(B37:B86)</f>
         <v>0.92903328181307976</v>
       </c>
-      <c r="C87" s="120">
+      <c r="C87" s="119">
         <v>0.1</v>
       </c>
-      <c r="E87" s="227">
+      <c r="E87" s="226">
         <f>SUM(E37:E86)</f>
         <v>0.34304585198864457</v>
       </c>
-      <c r="F87" s="116">
+      <c r="F87" s="115">
         <f>SUM(F37:F86)</f>
         <v>0.49308410164312749</v>
       </c>
-      <c r="G87" s="116">
+      <c r="G87" s="115">
         <f>E87+F87+C87</f>
         <v>0.93612995363177209</v>
       </c>
@@ -16857,16 +16884,16 @@
       <c r="A88" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="112"/>
+      <c r="B88" s="111"/>
       <c r="Z88" s="36" t="e">
         <f>SUM(AA38:AA87)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA88" s="116">
+      <c r="AA88" s="115">
         <f>SUM(AB38:AB87)</f>
         <v>1.1563427736777408E-5</v>
       </c>
-      <c r="AB88" s="116" t="e">
+      <c r="AB88" s="115" t="e">
         <f>SUM(AC38:AC87)</f>
         <v>#REF!</v>
       </c>
@@ -16881,7 +16908,7 @@
       </c>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="112" t="s">
+      <c r="A90" s="111" t="s">
         <v>476</v>
       </c>
       <c r="AD90" s="27" t="s">
@@ -16895,22 +16922,22 @@
       <c r="B91" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D91" s="120" t="s">
+      <c r="D91" s="119" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="112" t="s">
+      <c r="A92" s="111" t="s">
         <v>452</v>
       </c>
-      <c r="B92" s="113">
+      <c r="B92" s="112">
         <f>D20</f>
         <v>40.033005128303877</v>
       </c>
-      <c r="C92" s="120" t="s">
+      <c r="C92" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="120" t="s">
+      <c r="D92" s="119" t="s">
         <v>67</v>
       </c>
     </row>
@@ -16921,7 +16948,7 @@
       <c r="B93" s="27">
         <v>35315</v>
       </c>
-      <c r="C93" s="120" t="s">
+      <c r="C93" s="119" t="s">
         <v>72</v>
       </c>
     </row>
@@ -16932,25 +16959,25 @@
       <c r="B94" s="27">
         <v>11700</v>
       </c>
-      <c r="C94" s="120" t="s">
+      <c r="C94" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="120" t="s">
+      <c r="D94" s="119" t="s">
         <v>63</v>
       </c>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
-      <c r="K94" s="112">
+      <c r="K94" s="111">
         <v>3412</v>
       </c>
-      <c r="L94" s="112" t="s">
+      <c r="L94" s="111" t="s">
         <v>453</v>
       </c>
-      <c r="M94" s="114">
+      <c r="M94" s="113">
         <f>K94/B94</f>
         <v>0.29162393162393163</v>
       </c>
-      <c r="N94" s="112" t="s">
+      <c r="N94" s="111" t="s">
         <v>455</v>
       </c>
     </row>
@@ -16961,10 +16988,10 @@
       <c r="B95" s="27">
         <v>1</v>
       </c>
-      <c r="C95" s="120" t="s">
+      <c r="C95" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="112" t="s">
+      <c r="K95" s="111" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16973,7 +17000,7 @@
         <f>B92*B93/B94*B95</f>
         <v>120.83466462444885</v>
       </c>
-      <c r="C96" s="120" t="s">
+      <c r="C96" s="119" t="s">
         <v>66</v>
       </c>
     </row>
@@ -16985,10 +17012,10 @@
         <f>-D100/1000</f>
         <v>-0.53737674279288006</v>
       </c>
-      <c r="C97" s="120" t="s">
+      <c r="C97" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="120" t="s">
+      <c r="D97" s="119" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -17000,10 +17027,10 @@
         <f>B96*B97</f>
         <v>-64.933738492356369</v>
       </c>
-      <c r="C98" s="120" t="s">
+      <c r="C98" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="120">
+      <c r="D98" s="119">
         <v>1253.77</v>
       </c>
       <c r="E98" s="27">
@@ -17024,10 +17051,10 @@
         <f>#REF!+B98</f>
         <v>#REF!</v>
       </c>
-      <c r="C100" s="120" t="s">
+      <c r="C100" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="120">
+      <c r="D100" s="119">
         <v>537.37674279288001</v>
       </c>
       <c r="E100" s="28" t="s">
@@ -17045,10 +17072,10 @@
       <c r="B102" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C102" s="120" t="s">
+      <c r="C102" s="119" t="s">
         <v>545</v>
       </c>
-      <c r="D102" s="120" t="s">
+      <c r="D102" s="119" t="s">
         <v>546</v>
       </c>
       <c r="E102" s="27" t="s">
@@ -17065,10 +17092,10 @@
       <c r="B103" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="119" t="s">
         <v>550</v>
       </c>
-      <c r="D103" s="120" t="s">
+      <c r="D103" s="119" t="s">
         <v>551</v>
       </c>
       <c r="E103" s="27" t="s">
@@ -17106,10 +17133,10 @@
       <c r="B104" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C104" s="120" t="s">
+      <c r="C104" s="119" t="s">
         <v>550</v>
       </c>
-      <c r="D104" s="120" t="s">
+      <c r="D104" s="119" t="s">
         <v>551</v>
       </c>
       <c r="E104" s="27">
@@ -17147,10 +17174,10 @@
       <c r="B105" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C105" s="120" t="s">
+      <c r="C105" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="D105" s="120" t="s">
+      <c r="D105" s="119" t="s">
         <v>561</v>
       </c>
       <c r="E105" s="27" t="s">
@@ -17182,10 +17209,10 @@
       <c r="B106" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C106" s="120" t="s">
+      <c r="C106" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="119" t="s">
         <v>564</v>
       </c>
       <c r="E106" s="27" t="s">
@@ -17217,10 +17244,10 @@
       <c r="B107" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C107" s="120" t="s">
+      <c r="C107" s="119" t="s">
         <v>568</v>
       </c>
-      <c r="D107" s="120" t="s">
+      <c r="D107" s="119" t="s">
         <v>564</v>
       </c>
       <c r="E107" s="27" t="s">
@@ -17252,10 +17279,10 @@
       <c r="B108" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C108" s="120" t="s">
+      <c r="C108" s="119" t="s">
         <v>571</v>
       </c>
-      <c r="D108" s="120" t="s">
+      <c r="D108" s="119" t="s">
         <v>564</v>
       </c>
       <c r="E108" s="27" t="s">
@@ -17287,10 +17314,10 @@
       <c r="B109" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="C109" s="120" t="s">
+      <c r="C109" s="119" t="s">
         <v>574</v>
       </c>
-      <c r="D109" s="120" t="s">
+      <c r="D109" s="119" t="s">
         <v>575</v>
       </c>
       <c r="E109" s="27" t="s">
@@ -17336,8 +17363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17365,19 +17392,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -17385,7 +17412,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>446</v>
       </c>
     </row>
@@ -17465,7 +17492,7 @@
       <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="104"/>
       <c r="H8" t="s">
         <v>440</v>
       </c>
@@ -17492,30 +17519,30 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="F11" s="228">
+      <c r="F11" s="227">
         <f>Parameters!F27</f>
         <v>90.21</v>
       </c>
-      <c r="G11" s="100"/>
+      <c r="G11" s="99"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="229">
+      <c r="E12" s="228">
         <v>0.84</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>25</v>
@@ -17540,13 +17567,13 @@
     </row>
     <row r="14" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>696</v>
-      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="233"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="10">
         <v>0.03</v>
       </c>
@@ -17554,15 +17581,15 @@
         <v>10</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A15" s="231" t="s">
-        <v>698</v>
+      <c r="A15" s="230" t="s">
+        <v>697</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>30</v>
@@ -17571,20 +17598,20 @@
         <f>D15*Parameters!C19*Parameters!C6</f>
         <v>42.646957919999991</v>
       </c>
-      <c r="D15" s="236">
+      <c r="D15" s="235">
         <f>D13*E14</f>
         <v>2.2732919999999996</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A16" s="231" t="s">
-        <v>697</v>
+      <c r="A16" s="230" t="s">
+        <v>696</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C16" s="89"/>
-      <c r="D16" s="236"/>
+      <c r="D16" s="235"/>
       <c r="E16" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -17599,7 +17626,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="231" t="s">
+      <c r="A17" s="230" t="s">
         <v>427</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -17609,7 +17636,7 @@
         <f>D17*Parameters!C19*Parameters!C6</f>
         <v>7.1078263200000009</v>
       </c>
-      <c r="D17" s="237">
+      <c r="D17" s="236">
         <f>D13*E16</f>
         <v>0.378882</v>
       </c>
@@ -17621,8 +17648,8 @@
       <c r="B18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="230">
+      <c r="D18" s="108"/>
+      <c r="E18" s="229">
         <v>4.19318820416827</v>
       </c>
       <c r="F18">
@@ -17637,33 +17664,33 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="111">
+      <c r="D19" s="110">
         <f>E18*D13/1000</f>
         <v>0.31774470663433646</v>
       </c>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="231" t="s">
-        <v>678</v>
+      <c r="A20" s="230" t="s">
+        <v>677</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="D20" s="111"/>
+        <v>698</v>
+      </c>
+      <c r="D20" s="110"/>
       <c r="E20" s="10">
         <v>0.12</v>
       </c>
@@ -17672,10 +17699,10 @@
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -17697,7 +17724,7 @@
       <c r="B22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="238">
+      <c r="D22" s="237">
         <f>D21*G22</f>
         <v>-150.25435902513021</v>
       </c>
@@ -17711,12 +17738,12 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="235">
+      <c r="C23" s="234">
         <f>C15+C17+D22</f>
         <v>-100.49957478513022</v>
       </c>
@@ -17729,17 +17756,17 @@
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1">
       <c r="A25" s="88" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C25" s="89"/>
-      <c r="F25" s="223">
+      <c r="F25" s="222">
         <f>Parameters!D27</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1">
       <c r="A26" s="46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
@@ -17748,12 +17775,12 @@
       <c r="E26" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F26" s="222"/>
+      <c r="F26" s="221"/>
       <c r="H26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>394</v>
@@ -17766,19 +17793,19 @@
       <c r="B27" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D27" s="224">
+      <c r="D27" s="223">
         <f>F25*1000*(1-E26)</f>
         <v>121.49999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1">
       <c r="A28" s="46" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D28" s="224"/>
+        <v>684</v>
+      </c>
+      <c r="D28" s="223"/>
       <c r="E28" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -17788,16 +17815,16 @@
         <v>10</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>713</v>
+      </c>
+      <c r="B29" t="s">
         <v>714</v>
-      </c>
-      <c r="B29" t="s">
-        <v>715</v>
       </c>
       <c r="D29" s="90">
         <f>D27*E28</f>
@@ -17806,7 +17833,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -17848,7 +17875,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -17870,10 +17897,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10">
@@ -17887,10 +17914,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E35" s="10">
         <f>0.01</f>
@@ -17906,7 +17933,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -17918,7 +17945,7 @@
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -17936,55 +17963,55 @@
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="A39" s="46" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="G39" s="272">
+        <v>898</v>
+      </c>
+      <c r="G39" s="271">
         <f>GlobalFactors!E6</f>
         <v>0.3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1">
       <c r="A40" s="46" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="234">
+      <c r="E40" s="233">
         <v>20</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
       <c r="A41" s="46" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="E41" s="234"/>
+        <v>905</v>
+      </c>
+      <c r="E41" s="233"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="224">
+      <c r="D42" s="223">
         <f>E40*G39*(GlobalFactors!E4+GlobalFactors!E3)</f>
         <v>19.022966054640001</v>
       </c>
@@ -17992,7 +18019,7 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -18019,10 +18046,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B44" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D44" s="9">
         <f>D43*Parameters!C$16*Parameters!$C$5/1000*E44</f>
@@ -18037,25 +18064,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10">
         <v>0.2</v>
       </c>
       <c r="H45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B46" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D46" s="9">
         <f>E46*E45*D43*Parameters!C16*Parameters!C5/1000</f>
@@ -18066,7 +18093,7 @@
         <v>0.01</v>
       </c>
       <c r="H46" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -18083,7 +18110,7 @@
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>30</v>
@@ -18097,91 +18124,91 @@
       <c r="A49" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="108"/>
-    </row>
-    <row r="50" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A50" s="117" t="s">
+      <c r="D49" s="107"/>
+    </row>
+    <row r="50" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A50" s="116" t="s">
         <v>487</v>
       </c>
-      <c r="B50" s="117" t="s">
-        <v>713</v>
-      </c>
-      <c r="C50" s="212"/>
-      <c r="D50" s="212"/>
-      <c r="F50" s="221">
+      <c r="B50" s="116" t="s">
+        <v>712</v>
+      </c>
+      <c r="C50" s="211"/>
+      <c r="D50" s="211"/>
+      <c r="F50" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H50" s="117" t="s">
-        <v>670</v>
-      </c>
-      <c r="I50" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="J50" s="117" t="s">
+      <c r="H50" s="116" t="s">
+        <v>669</v>
+      </c>
+      <c r="I50" s="116" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A51" s="117" t="s">
-        <v>722</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>712</v>
-      </c>
-      <c r="C51" s="212"/>
-      <c r="D51" s="212"/>
-      <c r="F51" s="206">
+      <c r="J50" s="116" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A51" s="116" t="s">
+        <v>721</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>711</v>
+      </c>
+      <c r="C51" s="211"/>
+      <c r="D51" s="211"/>
+      <c r="F51" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I51" s="117">
+      <c r="I51" s="116">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="47" customFormat="1">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="116" t="s">
         <v>540</v>
       </c>
-      <c r="B52" s="232" t="s">
-        <v>711</v>
-      </c>
-      <c r="C52" s="235">
+      <c r="B52" s="231" t="s">
+        <v>710</v>
+      </c>
+      <c r="C52" s="234">
         <f>-D58*Parameters!C17</f>
         <v>-33.986464744643051</v>
       </c>
-      <c r="D52" s="285">
+      <c r="D52" s="283">
         <f>F50*(1-F51)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F52" s="170"/>
-      <c r="J52" s="267" t="s">
-        <v>934</v>
-      </c>
-      <c r="K52" s="191"/>
+      <c r="F52" s="169"/>
+      <c r="J52" s="266" t="s">
+        <v>931</v>
+      </c>
+      <c r="K52" s="190"/>
     </row>
     <row r="53" spans="1:11" s="47" customFormat="1">
-      <c r="A53" s="117" t="s">
-        <v>925</v>
-      </c>
-      <c r="B53" s="267" t="s">
-        <v>926</v>
-      </c>
-      <c r="D53" s="235">
+      <c r="A53" s="116" t="s">
+        <v>922</v>
+      </c>
+      <c r="B53" s="266" t="s">
+        <v>923</v>
+      </c>
+      <c r="D53" s="234">
         <f>F11*0.7</f>
         <v>63.146999999999991</v>
       </c>
-      <c r="F53" s="170"/>
-      <c r="J53" s="204"/>
-      <c r="K53" s="191"/>
+      <c r="F53" s="169"/>
+      <c r="J53" s="203"/>
+      <c r="K53" s="190"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="117" t="s">
-        <v>935</v>
+      <c r="A54" s="116" t="s">
+        <v>932</v>
       </c>
       <c r="B54" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D54" s="21">
         <f>(D53)*12/16</f>
@@ -18189,26 +18216,26 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="117" t="s">
-        <v>927</v>
+      <c r="A55" s="116" t="s">
+        <v>924</v>
       </c>
       <c r="B55" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D55" s="21">
         <f>D53/0.6-D53</f>
         <v>42.097999999999999</v>
       </c>
       <c r="J55" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="117" t="s">
-        <v>932</v>
+      <c r="A56" s="116" t="s">
+        <v>929</v>
       </c>
       <c r="B56" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D56" s="21">
         <f>D55*12/44</f>
@@ -18216,11 +18243,11 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="117" t="s">
-        <v>928</v>
+      <c r="A57" s="116" t="s">
+        <v>925</v>
       </c>
       <c r="B57" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D57" s="86">
         <f>F50-D56-D54</f>
@@ -18228,8 +18255,8 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="117" t="s">
-        <v>930</v>
+      <c r="A58" s="116" t="s">
+        <v>927</v>
       </c>
       <c r="D58" s="86">
         <f>D52*(F58)</f>
@@ -18246,17 +18273,17 @@
         <v>0.10666565582440578</v>
       </c>
       <c r="I58" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J58" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="44" customFormat="1">
       <c r="A60" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C60" s="184">
+      <c r="C60" s="183">
         <f>C23+C37+C48+C52</f>
         <v>49.521496524866727</v>
       </c>
@@ -18336,7 +18363,7 @@
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1">
       <c r="A66" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>30</v>
@@ -18345,13 +18372,13 @@
         <f>D64+D65</f>
         <v>-14.996581600000003</v>
       </c>
-      <c r="D66" s="239"/>
+      <c r="D66" s="238"/>
     </row>
     <row r="67" spans="1:9" s="6" customFormat="1">
       <c r="A67" s="88" t="s">
-        <v>720</v>
-      </c>
-      <c r="C67" s="240">
+        <v>719</v>
+      </c>
+      <c r="C67" s="239">
         <f>C60+C66</f>
         <v>34.524914924866721</v>
       </c>
@@ -18359,11 +18386,11 @@
     </row>
     <row r="68" spans="1:9" s="6" customFormat="1">
       <c r="A68" s="88"/>
-      <c r="C68" s="109"/>
+      <c r="C68" s="108"/>
     </row>
     <row r="69" spans="1:9" s="6" customFormat="1">
       <c r="A69" s="88"/>
-      <c r="C69" s="109"/>
+      <c r="C69" s="108"/>
     </row>
     <row r="70" spans="1:9">
       <c r="C70" s="86"/>
@@ -18377,7 +18404,7 @@
       <c r="A72" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H72" s="105"/>
+      <c r="H72" s="104"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7"/>
@@ -18399,10 +18426,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18429,19 +18456,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -18449,7 +18476,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>446</v>
       </c>
     </row>
@@ -18544,32 +18571,32 @@
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="285">
         <f>C10+C12</f>
         <v>52.836966054640001</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1">
       <c r="A8" s="46" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="C8" s="233"/>
-      <c r="E8" s="236">
+        <v>898</v>
+      </c>
+      <c r="C8" s="232"/>
+      <c r="E8" s="235">
         <f>GlobalFactors!E6</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="233"/>
+      <c r="C9" s="232"/>
       <c r="E9" s="5">
         <v>20</v>
       </c>
@@ -18585,8 +18612,8 @@
         <f>E9*E8*(GlobalFactors!E3+GlobalFactors!E4)</f>
         <v>19.022966054640001</v>
       </c>
-      <c r="G10" s="241" t="s">
-        <v>723</v>
+      <c r="G10" s="240" t="s">
+        <v>722</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -18622,10 +18649,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C13" s="18"/>
       <c r="E13" s="4">
@@ -18649,32 +18676,32 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="4">
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -18693,234 +18720,262 @@
       <c r="A18" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D18" s="108"/>
-    </row>
-    <row r="19" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A19" s="117" t="s">
+      <c r="D18" s="107"/>
+    </row>
+    <row r="19" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A19" s="116" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="117" t="s">
-        <v>713</v>
-      </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="F19" s="221">
+      <c r="B19" s="116" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="F19" s="220">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
-      <c r="H19" s="117" t="s">
-        <v>670</v>
-      </c>
-      <c r="I19" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="J19" s="117" t="s">
+      <c r="H19" s="116" t="s">
+        <v>669</v>
+      </c>
+      <c r="I19" s="116" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A20" s="117" t="s">
-        <v>770</v>
-      </c>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="117">
+      <c r="J19" s="116" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A20" s="116" t="s">
+        <v>769</v>
+      </c>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="116">
         <v>1</v>
       </c>
-      <c r="F20" s="221"/>
-    </row>
-    <row r="21" spans="1:11" s="117" customFormat="1" ht="14">
-      <c r="A21" s="117" t="s">
-        <v>722</v>
-      </c>
-      <c r="B21" s="117" t="s">
-        <v>712</v>
-      </c>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="F21" s="206">
+      <c r="F20" s="220"/>
+    </row>
+    <row r="21" spans="1:11" s="116" customFormat="1" ht="14">
+      <c r="A21" s="116" t="s">
+        <v>721</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="F21" s="205">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="I21" s="117">
+      <c r="I21" s="116">
         <f>+-3%</f>
         <v>-0.03</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="47" customFormat="1">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="116" t="s">
         <v>540</v>
       </c>
-      <c r="B22" s="232" t="s">
-        <v>711</v>
-      </c>
-      <c r="C22" s="235">
+      <c r="B22" s="231" t="s">
+        <v>710</v>
+      </c>
+      <c r="C22" s="234">
         <f>-D22*Parameters!C17</f>
         <v>-84.966161861607617</v>
       </c>
-      <c r="D22" s="212">
+      <c r="D22" s="211">
         <f>F19*(1-F21)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F22" s="170"/>
-      <c r="J22" s="204" t="s">
-        <v>669</v>
-      </c>
-      <c r="K22" s="191"/>
-    </row>
-    <row r="23" spans="1:11" s="44" customFormat="1">
-      <c r="A23" s="45" t="s">
+      <c r="F22" s="169"/>
+      <c r="J22" s="203" t="s">
+        <v>668</v>
+      </c>
+      <c r="K22" s="190"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="116" t="s">
+        <v>927</v>
+      </c>
+      <c r="D23" s="86">
+        <f>D22*(F23)</f>
+        <v>16.220812719034182</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="53">
+        <f>D23/F19</f>
+        <v>0.11130000000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>941</v>
+      </c>
+      <c r="I23" t="s">
+        <v>928</v>
+      </c>
+      <c r="J23" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="44" customFormat="1">
+      <c r="A24" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C23" s="184">
+      <c r="C24" s="183">
         <f>C22+C7</f>
         <v>-32.129195806967616</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="45" customFormat="1">
-      <c r="A24" s="45" t="s">
+    <row r="25" spans="1:11" s="45" customFormat="1">
+      <c r="A25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="243">
-        <f>D28+D29</f>
+      <c r="C25" s="242">
+        <f>D29+D30</f>
         <v>-20.974240000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="45" customFormat="1">
-      <c r="A25" s="88" t="s">
+    <row r="26" spans="1:11" s="45" customFormat="1">
+      <c r="A26" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="10">
+      <c r="C26" s="241"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="10">
         <v>0.02</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" t="s">
         <v>432</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>618</v>
-      </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="93">
-        <f>F11-F11*E13-F11*E16-F11*F25</f>
-        <v>4298</v>
-      </c>
-      <c r="F26">
-        <v>0.02</v>
-      </c>
+      <c r="I26"/>
+      <c r="J26"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="93">
+        <f>F11-F11*E13-F11*E16-F11*F26</f>
+        <v>4298</v>
+      </c>
+      <c r="F27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>402</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="9">
-        <f>D26*F27</f>
+      <c r="D28" s="9">
+        <f>D27*F28</f>
         <v>1719.2</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <f>GlobalFactors!E8</f>
         <v>0.4</v>
       </c>
-      <c r="G27" s="94"/>
-      <c r="H27" t="s">
+      <c r="G28" s="94"/>
+      <c r="H28" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>610</v>
-      </c>
-      <c r="B28" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="9">
-        <f>F28*D27/1000</f>
-        <v>-11.69056</v>
-      </c>
-      <c r="F28" s="4">
-        <v>-6.8</v>
-      </c>
-      <c r="G28" t="s">
-        <v>615</v>
-      </c>
-      <c r="H28" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="B29" t="s">
         <v>401</v>
       </c>
       <c r="D29" s="9">
-        <f>F29*D27/1000</f>
+        <f>F29*D28/1000</f>
+        <v>-11.69056</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-6.8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>615</v>
+      </c>
+      <c r="H29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="9">
+        <f>F30*D28/1000</f>
         <v>-9.2836800000000004</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <f>AD!G65</f>
         <v>-5.4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>614</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>611</v>
-      </c>
-      <c r="B30" t="s">
-        <v>612</v>
-      </c>
-      <c r="D30" s="9">
-        <f>F30*D27/1000</f>
-        <v>3.4384000000000001</v>
-      </c>
-      <c r="F30" s="10">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" t="s">
+        <v>612</v>
+      </c>
+      <c r="D31" s="9">
+        <f>F31*D28/1000</f>
+        <v>3.4384000000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>609</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="F31" s="4">
+      <c r="D32" s="9"/>
+      <c r="F32" s="4">
         <v>0.75</v>
       </c>
-      <c r="G31" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="44" customFormat="1">
-      <c r="A32" s="45" t="s">
+      <c r="G32" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="44" customFormat="1">
+      <c r="A33" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C32" s="96">
-        <f>C23+C24</f>
+      <c r="C33" s="95">
+        <f>C24+C25</f>
         <v>-53.103435806967617</v>
       </c>
     </row>
@@ -18939,8 +18994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18962,19 +19017,19 @@
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -18982,7 +19037,7 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>446</v>
       </c>
     </row>
@@ -19006,7 +19061,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>5</v>
@@ -19130,20 +19185,20 @@
       <c r="B13" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="E13" s="273">
-        <f>GlobalFactors!E40</f>
+      <c r="C13" s="109"/>
+      <c r="E13" s="272">
+        <f>GlobalFactors!E41</f>
         <v>3</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>541</v>
       </c>
       <c r="I13" s="46">
-        <f>GlobalFactors!F40</f>
+        <f>GlobalFactors!F41</f>
         <v>0.4</v>
       </c>
-      <c r="J13" s="193" t="s">
-        <v>648</v>
+      <c r="J13" s="192" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="46" customFormat="1">
@@ -19153,7 +19208,7 @@
       <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="174">
+      <c r="C14" s="173">
         <f>E13*F14</f>
         <v>9.5114830273200006</v>
       </c>
@@ -19169,7 +19224,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="46" customFormat="1">
-      <c r="C15" s="174"/>
+      <c r="C15" s="173"/>
     </row>
     <row r="16" spans="1:20" s="13" customFormat="1">
       <c r="A16" s="13" t="s">
@@ -19189,7 +19244,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="192">
+      <c r="F17" s="191">
         <f>Parameters!J27</f>
         <v>145.73955722402675</v>
       </c>
@@ -19200,42 +19255,42 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>602</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="178">
+      <c r="D18" s="177">
         <f>F17*E18</f>
         <v>84.528943189935518</v>
       </c>
       <c r="E18" s="4">
-        <f>GlobalFactors!E42</f>
+        <f>GlobalFactors!E43</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="H18" t="s">
         <v>541</v>
       </c>
       <c r="I18">
-        <f>GlobalFactors!F42</f>
+        <f>GlobalFactors!F43</f>
         <v>0.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="178"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="4">
-        <f>GlobalFactors!E43</f>
+        <f>GlobalFactors!E44</f>
         <v>0.02</v>
       </c>
       <c r="J19" s="6"/>
@@ -19245,10 +19300,10 @@
         <v>585</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="244">
+      <c r="D20" s="243">
         <f>D18*E19</f>
         <v>1.6905788637987105</v>
       </c>
@@ -19266,23 +19321,23 @@
         <v>595</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="176">
+      <c r="D21" s="175">
         <f>D20*Parameters!C18</f>
         <v>2.254105151731614</v>
       </c>
       <c r="E21" s="6"/>
       <c r="J21" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="175">
+      <c r="C22" s="174">
         <f>D21*Parameters!C6</f>
         <v>63.114944248485187</v>
       </c>
@@ -19296,28 +19351,28 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="F23" s="100">
+      <c r="D23" s="176"/>
+      <c r="F23" s="99">
         <f>Parameters!G27</f>
         <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E24" s="4">
-        <f>GlobalFactors!E44</f>
+        <f>GlobalFactors!E45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H24" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I24">
-        <f>GlobalFactors!F44</f>
+        <f>GlobalFactors!F45</f>
         <v>1E-3</v>
       </c>
       <c r="J24" t="s">
@@ -19331,7 +19386,7 @@
       <c r="B25" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C25" s="178"/>
+      <c r="C25" s="177"/>
       <c r="D25" s="21">
         <f>E24*F23*Parameters!C16/1000</f>
         <v>7.0714285714285702E-2</v>
@@ -19340,17 +19395,17 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="15" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="178">
+      <c r="C26" s="177">
         <f>D25*Parameters!C5</f>
         <v>18.73928571428571</v>
       </c>
       <c r="D26" s="21"/>
-      <c r="J26" s="187" t="s">
+      <c r="J26" s="186" t="s">
         <v>600</v>
       </c>
     </row>
@@ -19370,14 +19425,14 @@
       <c r="B28" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="110">
         <f>F17*(1-E18)</f>
         <v>61.210614034091243</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="K28" s="109"/>
+        <v>637</v>
+      </c>
+      <c r="K28" s="108"/>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
@@ -19386,44 +19441,44 @@
       <c r="B29" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D29" s="111">
+      <c r="D29" s="110">
         <f>D28*F29</f>
         <v>6.1210614034091249</v>
       </c>
-      <c r="E29" s="109"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="6">
         <v>0.1</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="K29" s="109"/>
+        <v>636</v>
+      </c>
+      <c r="K29" s="108"/>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="111">
+      <c r="D30" s="110">
         <f>F17-D18</f>
         <v>61.210614034091236</v>
       </c>
-      <c r="E30" s="109"/>
+      <c r="E30" s="108"/>
       <c r="J30" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="K30" s="109"/>
+        <v>882</v>
+      </c>
+      <c r="K30" s="108"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D31" s="86">
         <f>F17*(1-F31)</f>
         <v>23.172589598620259</v>
       </c>
-      <c r="F31" s="281">
+      <c r="F31" s="280">
         <f>Parameters!O27</f>
         <v>0.84099999999999997</v>
       </c>
@@ -19432,16 +19487,16 @@
         <v>0.37857142857142867</v>
       </c>
       <c r="H31" t="s">
-        <v>880</v>
-      </c>
-      <c r="I31" s="105"/>
+        <v>878</v>
+      </c>
+      <c r="I31" s="104"/>
       <c r="J31" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="86"/>
@@ -19458,16 +19513,16 @@
         <v>7.5714285714285734E-2</v>
       </c>
       <c r="H32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I32" s="86"/>
       <c r="J32" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>607</v>
@@ -19477,33 +19532,33 @@
         <v>-16.993232372321526</v>
       </c>
       <c r="D33" s="86"/>
-      <c r="F33" s="274"/>
-      <c r="I33" s="169"/>
+      <c r="F33" s="273"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="45" customFormat="1">
-      <c r="A34" s="172" t="s">
-        <v>631</v>
-      </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="185">
+      <c r="A34" s="171" t="s">
+        <v>630</v>
+      </c>
+      <c r="B34" s="171"/>
+      <c r="C34" s="184">
         <f>C36+C39</f>
         <v>37.105071428571421</v>
       </c>
-      <c r="D34" s="173">
+      <c r="D34" s="172">
         <v>3</v>
       </c>
-      <c r="E34" s="171"/>
-      <c r="J34" s="173"/>
+      <c r="E34" s="170"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B35" t="s">
         <v>621</v>
-      </c>
-      <c r="B35" t="s">
-        <v>622</v>
       </c>
       <c r="C35" s="86"/>
       <c r="D35">
@@ -19514,7 +19569,7 @@
         <v>0.4</v>
       </c>
       <c r="H35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -19530,11 +19585,11 @@
         <v>2.25</v>
       </c>
       <c r="F36" s="8">
-        <f>GlobalFactors!E47</f>
+        <f>GlobalFactors!E48</f>
         <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="46" customFormat="1">
@@ -19542,49 +19597,49 @@
         <v>47</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="175">
+      <c r="D37" s="174">
         <f>F23/1000*(1-E37)</f>
         <v>5.58</v>
       </c>
-      <c r="E37" s="273">
+      <c r="E37" s="272">
         <v>0.38</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="J37" s="182" t="s">
+        <v>729</v>
+      </c>
+      <c r="J37" s="181" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="4">
-        <f>GlobalFactors!E49</f>
+        <f>GlobalFactors!E50</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H38" t="s">
         <v>541</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="282">
+      <c r="C39" s="281">
         <f>D39*Parameters!C16*Parameters!C5</f>
         <v>34.855071428571421</v>
       </c>
@@ -19595,63 +19650,63 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="14" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
       <c r="J40" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="12" customFormat="1">
-      <c r="A41" s="247" t="s">
-        <v>731</v>
-      </c>
-      <c r="C41" s="246">
+      <c r="A41" s="246" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="245">
         <f>C12+C16+C27+C34</f>
         <v>111.47755204634079</v>
       </c>
-      <c r="D41" s="246"/>
+      <c r="D41" s="245"/>
     </row>
     <row r="42" spans="1:10" s="45" customFormat="1">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="184">
+      <c r="B42" s="171"/>
+      <c r="C42" s="183">
         <f>C45+C46</f>
         <v>-27.230400000000003</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="171"/>
-      <c r="J42" s="173"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="170"/>
+      <c r="J42" s="172"/>
     </row>
     <row r="43" spans="1:10" s="46" customFormat="1">
       <c r="A43" s="14" t="s">
-        <v>616</v>
+        <v>939</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="5"/>
-      <c r="E43" s="181"/>
+      <c r="E43" s="180"/>
       <c r="F43" s="46">
         <v>0.4</v>
       </c>
-      <c r="J43" s="182"/>
+      <c r="J43" s="181"/>
     </row>
     <row r="44" spans="1:10" s="46" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>604</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="175">
+      <c r="D44" s="174">
         <f>D37*F43</f>
         <v>2.2320000000000002</v>
       </c>
-      <c r="E44" s="245"/>
-      <c r="J44" s="182"/>
+      <c r="E44" s="244"/>
+      <c r="J44" s="181"/>
     </row>
     <row r="45" spans="1:10" s="88" customFormat="1">
       <c r="A45" s="14" t="s">
@@ -19660,12 +19715,12 @@
       <c r="B45" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="183">
+      <c r="C45" s="182">
         <f>D44*G45</f>
         <v>-15.177600000000002</v>
       </c>
-      <c r="D45" s="179"/>
-      <c r="E45" s="180"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
       <c r="G45" s="88">
         <f>-GlobalFactors!E7</f>
         <v>-6.8</v>
@@ -19673,53 +19728,53 @@
       <c r="H45" s="88" t="s">
         <v>615</v>
       </c>
-      <c r="J45" s="179" t="s">
-        <v>639</v>
+      <c r="J45" s="178" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="88" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="183">
+      <c r="C46" s="182">
         <f>D44*G46</f>
         <v>-12.052800000000001</v>
       </c>
-      <c r="D46" s="179"/>
-      <c r="E46" s="180"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="179"/>
       <c r="G46" s="88">
-        <f>'Land application'!F29</f>
+        <f>'Land application'!F30</f>
         <v>-5.4</v>
       </c>
       <c r="H46" s="88" t="s">
         <v>614</v>
       </c>
-      <c r="J46" s="179"/>
+      <c r="J46" s="178"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="45" customFormat="1">
-      <c r="A50" s="172" t="s">
+      <c r="A50" s="171" t="s">
         <v>588</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -19732,7 +19787,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -19740,10 +19795,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B52" t="s">
         <v>624</v>
-      </c>
-      <c r="B52" t="s">
-        <v>625</v>
       </c>
       <c r="D52">
         <f>D35</f>
@@ -19755,7 +19810,7 @@
         <v>588</v>
       </c>
       <c r="B53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C53">
         <f>F53*D52/1000</f>
@@ -19765,14 +19820,14 @@
         <v>-970</v>
       </c>
       <c r="H53" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="C55" s="186"/>
+      <c r="C55" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19886,7 +19941,7 @@
         <v>386</v>
       </c>
       <c r="C6" s="82"/>
-      <c r="E6" s="107">
+      <c r="E6" s="106">
         <f>D23</f>
         <v>1.0573347107438016</v>
       </c>
@@ -20061,7 +20116,7 @@
       <c r="N25" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="148" t="s">
         <v>516</v>
       </c>
       <c r="B26" s="66"/>
@@ -20074,7 +20129,7 @@
       <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="16" thickBot="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="148" t="s">
         <v>517</v>
       </c>
       <c r="J27" s="51"/>
@@ -20084,7 +20139,7 @@
       <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="16" thickBot="1">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="148" t="s">
         <v>518</v>
       </c>
       <c r="J28" s="51"/>
@@ -20094,37 +20149,37 @@
       <c r="N28" s="51"/>
     </row>
     <row r="29" spans="1:14" ht="16" thickBot="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="148" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="16" thickBot="1">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="148" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16" thickBot="1">
-      <c r="A31" s="149" t="s">
-        <v>671</v>
+      <c r="A31" s="148" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16" thickBot="1">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="148" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16" thickBot="1">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="148" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16" thickBot="1">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="148" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" thickBot="1">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="149" t="s">
         <v>525</v>
       </c>
     </row>
@@ -20164,26 +20219,26 @@
       <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="208" t="s">
+      <c r="D1" s="207" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>5</v>
@@ -20191,118 +20246,118 @@
       <c r="S1" s="27">
         <v>3.7854100000000002</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+        <v>740</v>
+      </c>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H3">
         <f>2.6/16</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45">
       <c r="A4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G4">
         <v>-1225</v>
       </c>
-      <c r="H4" s="260" t="s">
+      <c r="H4" s="259" t="s">
+        <v>752</v>
+      </c>
+      <c r="I4" t="s">
         <v>753</v>
       </c>
-      <c r="I4" t="s">
-        <v>754</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G5">
         <v>6.8</v>
       </c>
-      <c r="H5" s="260" t="s">
-        <v>750</v>
+      <c r="H5" s="259" t="s">
+        <v>749</v>
       </c>
       <c r="I5">
         <v>6.8</v>
       </c>
       <c r="J5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="260" t="s">
-        <v>751</v>
+      <c r="H6" s="259" t="s">
+        <v>750</v>
       </c>
       <c r="I6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G7">
         <f>-1081*1.1</f>
         <v>-1189.1000000000001</v>
       </c>
-      <c r="H7" s="260" t="s">
-        <v>752</v>
-      </c>
-      <c r="I7" s="259" t="s">
-        <v>756</v>
+      <c r="H7" s="259" t="s">
+        <v>751</v>
+      </c>
+      <c r="I7" s="258" t="s">
+        <v>755</v>
       </c>
       <c r="J7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C8">
         <f>G7*H3</f>
@@ -20365,7 +20420,7 @@
       <c r="E2" s="70">
         <v>6</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="97">
         <v>-177</v>
       </c>
       <c r="G2" s="56" t="s">
@@ -20386,7 +20441,7 @@
       <c r="E3" s="57">
         <v>7</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="96">
         <v>7</v>
       </c>
       <c r="G3" s="56" t="s">
@@ -20407,7 +20462,7 @@
       <c r="E4" s="57">
         <v>8.25</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="56" t="s">
         <v>55</v>
       </c>
@@ -20426,7 +20481,7 @@
         <v>-620.59214876033047</v>
       </c>
       <c r="E5" s="56"/>
-      <c r="F5" s="98">
+      <c r="F5" s="97">
         <v>-479</v>
       </c>
       <c r="G5" s="56" t="s">
@@ -20515,11 +20570,11 @@
         <f>C2-E2</f>
         <v>764</v>
       </c>
-      <c r="H47" s="103">
+      <c r="H47" s="102">
         <f>F2-C2</f>
         <v>-947</v>
       </c>
-      <c r="I47" s="103">
+      <c r="I47" s="102">
         <f>C2-F2</f>
         <v>947</v>
       </c>
@@ -20540,18 +20595,18 @@
         <f>D3-E3</f>
         <v>-44.995041322314044</v>
       </c>
-      <c r="D48" s="103">
+      <c r="D48" s="102">
         <f>H86-G86</f>
         <v>0</v>
       </c>
-      <c r="E48" s="103">
+      <c r="E48" s="102">
         <f>G86-H86</f>
         <v>0</v>
       </c>
       <c r="F48" s="57"/>
       <c r="G48" s="55"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="104"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="103"/>
       <c r="J48" s="71">
         <f>F3-D3</f>
         <v>44.995041322314044</v>
@@ -20575,11 +20630,11 @@
         <f>D4-E4</f>
         <v>-118.77727272727275</v>
       </c>
-      <c r="D49" s="103"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
-      <c r="H49" s="103"/>
+      <c r="H49" s="102"/>
       <c r="I49" s="70"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
@@ -20596,11 +20651,11 @@
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="103">
+      <c r="H50" s="102">
         <f>F5-C5</f>
         <v>-2403</v>
       </c>
-      <c r="I50" s="103">
+      <c r="I50" s="102">
         <f>C5-F5</f>
         <v>2403</v>
       </c>
